--- a/TCS_NEWUI_AgGrid.xlsx
+++ b/TCS_NEWUI_AgGrid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2BB65E-5537-4400-B851-A1172DEE8FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2949F298-A8D7-4EEA-8E1B-B2C894F1C7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9913A142-596E-4577-AFA5-D47B60F9E6FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="237">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -982,6 +982,47 @@
 2. Second last page record should be displayed in AgGrid </t>
     </r>
   </si>
+  <si>
+    <t>Verify the Data loading issue when user resets/changes filters</t>
+  </si>
+  <si>
+    <t>Bug ticket cases</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>US:WEB-7718_TC 25</t>
+  </si>
+  <si>
+    <t>Apply Filters using derach options</t>
+  </si>
+  <si>
+    <t>1. User should be able to open search options window
+2. User should select any date range and Media from the search options and apply</t>
+  </si>
+  <si>
+    <t>Go to agrid grid's table view and move to in-between page</t>
+  </si>
+  <si>
+    <t>1. User should be able to move to inbetween pages (lets say user is on page 6)</t>
+  </si>
+  <si>
+    <t>Reset the applied date range filter</t>
+  </si>
+  <si>
+    <t>User should be able to reset the date range filter by clicking on reset icon beside the date range filter tag</t>
+  </si>
+  <si>
+    <t>Now verify the AgGrid</t>
+  </si>
+  <si>
+    <t>1. Data in all the view should load
+2. Page count should be default 20 and user should be on page 1</t>
+  </si>
+  <si>
+    <t>SMRT-7781</t>
+  </si>
 </sst>
 </file>
 
@@ -989,7 +1030,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -2458,7 +2499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2637,6 +2678,19 @@
     <xf numFmtId="9" fontId="8" fillId="34" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="39" fillId="25" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2712,171 +2766,165 @@
     <xf numFmtId="0" fontId="41" fillId="31" borderId="40" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="25" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="157">
-    <cellStyle name="20% - Accent1 2" xfId="18" xr:uid="{45356431-4618-445B-BEA6-48D9C25FF5CD}"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="23" xr:uid="{2C20A16B-5B45-4FA9-A5E6-FDD61BACF0B4}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="29" xr:uid="{A2C8464B-D352-462D-AB16-31892C321C7A}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3 2" xfId="33" xr:uid="{EA10B05B-90D1-46EB-A4F6-508FD14DEB56}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3 3" xfId="36" xr:uid="{579ED6C9-1233-45DF-B507-8CCE460F183D}"/>
-    <cellStyle name="20% - Accent1 2 3" xfId="38" xr:uid="{749CB31D-466D-4A4C-B6A2-5FC88EE96886}"/>
-    <cellStyle name="20% - Accent1 2 3 2" xfId="40" xr:uid="{0DEBA1A8-C7B5-4C60-911C-E6ED1A771370}"/>
-    <cellStyle name="20% - Accent1 2 3 2 2" xfId="43" xr:uid="{BCA2BC94-DA6B-4DA1-9C19-0C33A6012DE8}"/>
-    <cellStyle name="20% - Accent1 2 3 2 3" xfId="21" xr:uid="{89CDE661-74FC-4F2E-83E1-B0AFE1F1BCB1}"/>
-    <cellStyle name="20% - Accent1 2 3 2 4" xfId="44" xr:uid="{5B41EAF2-3B0F-40EA-A82B-B3DCBCF449DD}"/>
-    <cellStyle name="20% - Accent1 3" xfId="27" xr:uid="{DF7E8508-7A1A-4724-A797-6B2611A6A5CD}"/>
-    <cellStyle name="20% - Accent2 2" xfId="47" xr:uid="{6E72BCAC-A7C1-41C2-9DA7-0356776895F2}"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="48" xr:uid="{AA42ABC4-1856-4CF5-AA74-872F41AAAB07}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="49" xr:uid="{5BCABE3E-E34B-4A47-B6BA-5A5A6E4DDF4E}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3 2" xfId="51" xr:uid="{8D76347C-683E-4B62-8B1B-4C03E583F7A9}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3 3" xfId="52" xr:uid="{44FA5B27-9C62-4EA7-8199-111DA43950F1}"/>
-    <cellStyle name="20% - Accent2 2 3" xfId="50" xr:uid="{5003AE73-3C95-4CAE-A8B3-469DBAE35975}"/>
-    <cellStyle name="20% - Accent2 2 3 2" xfId="25" xr:uid="{B4264882-0B75-406B-AB2E-0A688C4CA4B9}"/>
-    <cellStyle name="20% - Accent2 3" xfId="45" xr:uid="{0582361D-73B4-4F0A-81FD-EBF95D7A2F1A}"/>
-    <cellStyle name="20% - Accent3 2" xfId="54" xr:uid="{869998A9-6116-49B1-9A1C-363BE302222B}"/>
-    <cellStyle name="20% - Accent4 2" xfId="55" xr:uid="{EB47DD66-5397-431B-9919-F81803D5A8A5}"/>
-    <cellStyle name="20% - Accent5 2" xfId="57" xr:uid="{F3C49908-D743-4B66-B822-3210CDE9F0BE}"/>
-    <cellStyle name="20% - Accent6 2" xfId="32" xr:uid="{FC24FF24-0D2B-446F-A357-0858B328896F}"/>
-    <cellStyle name="40% - Accent1 2" xfId="58" xr:uid="{32002AD2-9638-4D3A-8828-C6E3A3176A69}"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="60" xr:uid="{8C8E466D-2449-47F2-A87F-28CEF05FD260}"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2" xfId="63" xr:uid="{68A7C652-A8A7-4FF4-A464-6184976375EF}"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2 2" xfId="66" xr:uid="{42DBE7DF-7257-407B-A2EF-52AB2FA11AD3}"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2 3" xfId="67" xr:uid="{FA872AB5-01B7-4AB8-8DC0-3E8735CE5807}"/>
-    <cellStyle name="40% - Accent1 2 3" xfId="69" xr:uid="{87671FA5-2366-43B2-99F1-EF0B37D462EA}"/>
-    <cellStyle name="40% - Accent1 2 3 2" xfId="70" xr:uid="{A31B1119-AE6E-488C-B4BD-5770ACDA6113}"/>
-    <cellStyle name="40% - Accent1 3" xfId="19" xr:uid="{73F1D534-2F5A-4F01-8257-83F096032368}"/>
-    <cellStyle name="40% - Accent2 2" xfId="31" xr:uid="{DFD2C686-8059-488A-8947-54092936B95E}"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="53" xr:uid="{134A4167-5769-4A33-8E44-158E5FC71AED}"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2" xfId="75" xr:uid="{8CC3B72B-6D0D-4780-88EA-E69761B2C7BD}"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2 2" xfId="77" xr:uid="{01567007-C328-43EE-A3C4-AE257E361184}"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2 3" xfId="46" xr:uid="{D07CF8BF-C164-4CDB-B773-4F934EFDD129}"/>
-    <cellStyle name="40% - Accent2 2 3" xfId="73" xr:uid="{82D0FC18-D48A-460F-AA36-B8A6DA9BB0C2}"/>
-    <cellStyle name="40% - Accent2 2 3 2" xfId="76" xr:uid="{99ABF416-20EB-410C-9027-EF075ED86572}"/>
-    <cellStyle name="40% - Accent2 2 3 2 2" xfId="9" xr:uid="{40554093-B668-4F5E-8D49-B5A7E5549AC7}"/>
-    <cellStyle name="40% - Accent2 2 3 2 2 2" xfId="155" xr:uid="{F2554CD3-D897-47BC-816C-4D2BE621AC49}"/>
-    <cellStyle name="40% - Accent2 3" xfId="28" xr:uid="{6FB919AD-C3A5-4D28-8ED7-89E4ACB59200}"/>
-    <cellStyle name="40% - Accent3 2" xfId="22" xr:uid="{BE4A7BD4-2EAB-4943-BEB7-A17EA659E987}"/>
-    <cellStyle name="40% - Accent4 2" xfId="37" xr:uid="{702575D5-D528-4529-B9B0-C9611D5CDED6}"/>
-    <cellStyle name="40% - Accent5 2" xfId="59" xr:uid="{DB5037B9-9883-4528-BC9E-71965413AFC5}"/>
-    <cellStyle name="40% - Accent6 2" xfId="68" xr:uid="{927C096B-C431-496F-A126-16A5F8B82A93}"/>
-    <cellStyle name="60% - Accent1 2" xfId="56" xr:uid="{CCAB72D2-2BCF-45FE-A2E3-107D23127DF2}"/>
-    <cellStyle name="60% - Accent2 2" xfId="30" xr:uid="{669F9D7C-FDE9-4623-97DF-116095D7D8B8}"/>
-    <cellStyle name="60% - Accent3 2" xfId="34" xr:uid="{0D8DE370-EF02-4519-BEF3-43AF50FF567A}"/>
-    <cellStyle name="60% - Accent4 2" xfId="62" xr:uid="{6FF0F210-F4D5-42E6-BA81-14596C70FB9F}"/>
-    <cellStyle name="60% - Accent5 2" xfId="78" xr:uid="{E4A1DC1A-D974-4895-B429-6CA23E1CF63E}"/>
-    <cellStyle name="60% - Accent6 2" xfId="65" xr:uid="{8497BBFF-2843-41BF-9722-21FCD9C06790}"/>
-    <cellStyle name="Accent1 2" xfId="79" xr:uid="{828DE1D5-1626-465D-B0D0-B101A911A558}"/>
-    <cellStyle name="Accent1 2 2" xfId="72" xr:uid="{0482A7A9-B4F6-4911-9402-57FA52D78D3B}"/>
-    <cellStyle name="Accent1 2 2 2 2 3" xfId="7" xr:uid="{7A3E74B3-31F3-4664-A227-061F4E382413}"/>
-    <cellStyle name="Accent1 2 2 2 2 3 2" xfId="42" xr:uid="{F60183D8-A996-4943-9532-25EFE72E47D3}"/>
-    <cellStyle name="Accent1 2 2 2 2 3 3" xfId="20" xr:uid="{F7B2D5CD-EFDF-4558-B092-4D0D3B84CC01}"/>
-    <cellStyle name="Accent1 2 3" xfId="80" xr:uid="{80A051E1-8C20-4F7B-98E0-9116F0C6F0B9}"/>
-    <cellStyle name="Accent1 2 3 2" xfId="83" xr:uid="{4055F2DC-434F-4032-A0D2-294841E5A0D8}"/>
-    <cellStyle name="Accent1 2 3 2 2" xfId="3" xr:uid="{06AA3A4B-993A-4D6C-A5E5-AB26880450C0}"/>
-    <cellStyle name="Accent2 2" xfId="61" xr:uid="{4B1A6BE5-891F-4F3D-814D-2533DB773770}"/>
-    <cellStyle name="Accent2 2 2" xfId="64" xr:uid="{FEF4D06F-1FE9-462A-947C-3AE048F35767}"/>
-    <cellStyle name="Accent2 2 2 2 2 3" xfId="85" xr:uid="{DF303DA4-B829-4C14-8A4A-53ED4A9AF784}"/>
-    <cellStyle name="Accent2 2 2 2 2 3 2" xfId="86" xr:uid="{DBFA1E8B-0224-4085-9F3E-E3B4C595C620}"/>
-    <cellStyle name="Accent2 2 2 2 2 3 3" xfId="87" xr:uid="{13DA5C72-41AB-4123-8233-3679FEA48515}"/>
-    <cellStyle name="Accent2 2 3" xfId="88" xr:uid="{404CB5B5-89FD-47BF-AE81-A99E926EC7BC}"/>
-    <cellStyle name="Accent2 2 3 2" xfId="89" xr:uid="{874C60B3-59D1-4900-8321-835C9A7E50E6}"/>
-    <cellStyle name="Accent2 2 3 2 2" xfId="4" xr:uid="{0652578E-BFDD-4CED-BD09-CF8C95A17DF7}"/>
-    <cellStyle name="Accent2 3" xfId="84" xr:uid="{28D29166-FF80-4947-8449-82645587C8C2}"/>
-    <cellStyle name="Accent3 2" xfId="90" xr:uid="{4B043812-EBA5-4094-A326-A9250CF52215}"/>
-    <cellStyle name="Accent4 2" xfId="39" xr:uid="{276D5414-059D-4C1A-938B-F779D8AFFD49}"/>
-    <cellStyle name="Accent5 2" xfId="91" xr:uid="{D5EC99F8-2175-4DDF-84E7-F2B368848606}"/>
-    <cellStyle name="Accent6 2" xfId="41" xr:uid="{5B5774F5-E024-433C-BA10-86FEA2126040}"/>
-    <cellStyle name="Bad 2" xfId="92" xr:uid="{3D25592F-5FFC-48E4-ABDA-44322BE9066D}"/>
-    <cellStyle name="Calculation 2" xfId="24" xr:uid="{02DF40F9-C3A1-4D9B-A994-4482CA8A19CB}"/>
-    <cellStyle name="Check Cell 2" xfId="93" xr:uid="{9EA14492-02EF-447D-A8BC-6F1B83EA567E}"/>
-    <cellStyle name="Comma [0] 2" xfId="15" xr:uid="{3B3B35A7-04EC-488B-976B-696A2EFA0A53}"/>
-    <cellStyle name="Comma [0] 3" xfId="16" xr:uid="{7C782A14-7812-4559-9D8C-EEDF33CE4EF5}"/>
-    <cellStyle name="Explanatory Text 2" xfId="94" xr:uid="{BB2AD8DA-21A7-48B2-BA83-551D32428D27}"/>
-    <cellStyle name="Good 2" xfId="95" xr:uid="{1A87585E-4256-48C0-9D49-95BECB2DA47D}"/>
-    <cellStyle name="Heading 1 2" xfId="96" xr:uid="{8A9CA071-9F40-43EB-BB70-6BEDD9EEC651}"/>
-    <cellStyle name="Heading 2 2" xfId="98" xr:uid="{E0BEBFD1-1A6C-479D-99AC-46590444B63F}"/>
-    <cellStyle name="Heading 2 2 2" xfId="99" xr:uid="{E98252D0-2E9C-487D-93CF-088EAB8685FF}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="8" xr:uid="{75A1C5A5-3FE1-4CC2-8796-821374DD5152}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="100" xr:uid="{A3E7C71A-7AFF-4171-B821-BB82D9C0DB77}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="101" xr:uid="{949A1F90-F01C-433A-9EB6-63E31D948713}"/>
-    <cellStyle name="Heading 2 2 3" xfId="26" xr:uid="{8C678096-5980-4F45-BFFA-69C2FCEFC980}"/>
-    <cellStyle name="Heading 2 2 3 2" xfId="17" xr:uid="{DA548EEF-F765-4C5D-8904-5133A6A52F45}"/>
-    <cellStyle name="Heading 3 2" xfId="102" xr:uid="{BF1EA16C-EA07-477A-B3D1-3725DA786A75}"/>
-    <cellStyle name="Heading 4 2" xfId="103" xr:uid="{88694B27-A6AC-4466-90A5-1F891EF0EAEE}"/>
+    <cellStyle name="20% - Accent1 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent1 2 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2 4" xfId="44" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="49" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent2 2 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent2 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2 3" xfId="67" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="40% - Accent1 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40% - Accent1 2 3 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - Accent2 2 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2 2 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="40% - Accent2 3" xfId="28" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Accent1 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Accent1 2 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Accent1 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Accent1 2 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Accent1 2 3 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Accent2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Accent2 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3" xfId="85" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3 3" xfId="87" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Accent2 2 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Accent2 2 3 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Accent2 2 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Accent2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Accent3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Accent4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Accent5 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Accent6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Bad 2" xfId="92" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Calculation 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Check Cell 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Comma [0] 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Comma [0] 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Good 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Heading 1 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Heading 2 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Heading 2 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Heading 2 2 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Heading 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Heading 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{B00CEB01-D6AF-4E2C-9A36-A07CA6FE2FE3}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="105" xr:uid="{60FB7640-C906-46CC-8C44-D2CB2022ED51}"/>
-    <cellStyle name="Hyperlink 2 3" xfId="104" xr:uid="{869AA1B4-3BD5-4504-8BFA-228FF03F27FC}"/>
-    <cellStyle name="Hyperlink 3" xfId="106" xr:uid="{5D5DDEAF-7991-40CA-9C50-9EA31BD5A78F}"/>
-    <cellStyle name="Hyperlink 4" xfId="107" xr:uid="{01F09BFE-C95F-4CDB-992C-1374AF1E15E5}"/>
-    <cellStyle name="Hyperlink 5" xfId="145" xr:uid="{A1E654A2-6024-43C7-8CE7-1932AFCC1213}"/>
-    <cellStyle name="Input 2" xfId="108" xr:uid="{07EC1CFB-6D6F-4E50-9689-D6DEB038DE12}"/>
-    <cellStyle name="Linked Cell 2" xfId="109" xr:uid="{EBAADE0F-7351-4274-9663-817D039F079D}"/>
-    <cellStyle name="Neutral 2" xfId="74" xr:uid="{6CAF33FC-72D8-4BB1-BD6F-36A1969DA636}"/>
+    <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Hyperlink 5" xfId="145" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Input 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Neutral 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="13" xr:uid="{CA0FE24F-B437-45AB-AB48-63F88BA42DF1}"/>
-    <cellStyle name="Normal 2 2" xfId="111" xr:uid="{F44A67F3-29D1-48A6-8983-7E17EA65DC53}"/>
-    <cellStyle name="Normal 2 2 2" xfId="112" xr:uid="{CFEE9976-EADE-4B02-80FB-EBF3E82B3F17}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2" xfId="113" xr:uid="{1D927321-2BDE-4DEA-87D8-21869DDF69B3}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="114" xr:uid="{7B4030E6-1466-4DAF-AB8D-9270978F6031}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="115" xr:uid="{D5BF8204-B2D9-4C38-A92A-A371805B2A4E}"/>
-    <cellStyle name="Normal 2 3" xfId="116" xr:uid="{25F69ACC-D48D-4C9A-93CB-3C4A4E7D458B}"/>
-    <cellStyle name="Normal 2 4" xfId="117" xr:uid="{5030CE81-0F46-4A74-A341-2CE2B891A85C}"/>
-    <cellStyle name="Normal 2 4 2" xfId="2" xr:uid="{16BBBEEF-3A03-4488-A62B-778DC5682EFF}"/>
-    <cellStyle name="Normal 2 4 2 2" xfId="154" xr:uid="{22A010D7-C05B-4501-8F68-0FFBA09A829F}"/>
-    <cellStyle name="Normal 2 5" xfId="110" xr:uid="{1B68B814-6FA2-4679-9CDA-DDB75ECB88D9}"/>
-    <cellStyle name="Normal 3" xfId="118" xr:uid="{85A42207-A844-4674-A84C-6FCA49A97B3C}"/>
-    <cellStyle name="Normal 3 2" xfId="119" xr:uid="{3D2C0C38-5FB1-453C-9C47-A5CFF7FDEDEB}"/>
-    <cellStyle name="Normal 3 2 2" xfId="120" xr:uid="{DC7AC647-4B00-4264-9CF0-DFA00DF742BE}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="97" xr:uid="{C4C3412B-598F-413E-A5F7-01C72A72A187}"/>
-    <cellStyle name="Normal 3 2 3" xfId="121" xr:uid="{8C742BA8-DBF3-44A4-AE02-851D0FA89651}"/>
-    <cellStyle name="Normal 3 2 4" xfId="147" xr:uid="{6A716DC7-3DED-4A14-A2D5-2B859C866F65}"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="6" xr:uid="{41537BA9-43E2-41A5-A868-F42C03188283}"/>
-    <cellStyle name="Normal 3 2 4 3" xfId="151" xr:uid="{7B4A989E-7BAD-4C36-9D3D-20A9A6FA887E}"/>
-    <cellStyle name="Normal 3 2 4 3 2" xfId="11" xr:uid="{FC0DB05A-DD09-4EDA-A1B0-5BF112975CF7}"/>
-    <cellStyle name="Normal 3 3" xfId="71" xr:uid="{0A7DA66D-9562-4CAA-9151-CC115E7A9DAC}"/>
-    <cellStyle name="Normal 3 3 2" xfId="122" xr:uid="{9B984F47-7CAB-435F-BE20-FD6BAE2C46E6}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="123" xr:uid="{1CBF326B-0619-4F3B-A180-564ECDDCE537}"/>
-    <cellStyle name="Normal 3 4" xfId="146" xr:uid="{D2C38990-049D-42A0-8C2A-12CCDD7AB876}"/>
-    <cellStyle name="Normal 3 4 2" xfId="156" xr:uid="{44AA3463-8C67-41CD-BE4D-886CDEB2B167}"/>
-    <cellStyle name="Normal 4" xfId="124" xr:uid="{557DEE8A-76DC-4CB1-9730-D56947BC37A9}"/>
-    <cellStyle name="Normal 5" xfId="125" xr:uid="{A8108B66-BF36-4F37-BFC2-9893F377EA2A}"/>
-    <cellStyle name="Normal 6" xfId="10" xr:uid="{6D8BD2F5-55B9-45D8-A6FF-F84B26814650}"/>
-    <cellStyle name="Note 2" xfId="82" xr:uid="{E9E75CE3-B7D2-47EF-8989-6D1214A69869}"/>
-    <cellStyle name="Output 2" xfId="35" xr:uid="{44382481-F5F7-461E-B034-0751168EEBEA}"/>
-    <cellStyle name="TableStyleLight1" xfId="126" xr:uid="{3F737322-5D70-4141-9FE1-D95291E5F847}"/>
-    <cellStyle name="TableStyleLight1 2" xfId="127" xr:uid="{404F83B6-5A69-4046-9D37-3D83BCCFD744}"/>
-    <cellStyle name="TableStyleLight1 2 2" xfId="128" xr:uid="{20054AA6-D274-4572-8287-3D2E4C644ECC}"/>
-    <cellStyle name="TableStyleLight1 2 2 2" xfId="129" xr:uid="{2E736E26-5475-4857-AAFC-C2625A52E38E}"/>
-    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="130" xr:uid="{44A48D57-5C00-403C-AE52-E98BF3855169}"/>
-    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="131" xr:uid="{C1E5C605-2F9D-45EA-A02C-5092785D85AA}"/>
-    <cellStyle name="TableStyleLight1 2 3" xfId="132" xr:uid="{7DCA74E1-C34B-4CB8-A085-B5F81498F6AE}"/>
-    <cellStyle name="TableStyleLight1 2 4" xfId="149" xr:uid="{85435A6D-B23C-4B0F-A1DD-BF72120505EA}"/>
-    <cellStyle name="TableStyleLight1 2 4 2" xfId="150" xr:uid="{E0248466-2327-45DD-825B-01C565E2F745}"/>
-    <cellStyle name="TableStyleLight1 2 4 3" xfId="153" xr:uid="{288C9D13-BBDC-41B9-A1E6-B1CC7445E94D}"/>
-    <cellStyle name="TableStyleLight1 3" xfId="133" xr:uid="{266DBCFA-847F-4D2C-8535-9E91F7A79746}"/>
-    <cellStyle name="TableStyleLight1 3 2" xfId="134" xr:uid="{5A9AE4EB-8F39-4260-8B9B-2B9700838CA9}"/>
-    <cellStyle name="TableStyleLight1 3 2 2" xfId="135" xr:uid="{2139CBB1-4D4E-4233-AB03-D9A8261C42C0}"/>
-    <cellStyle name="TableStyleLight1 3 2 3" xfId="136" xr:uid="{327989DC-FB46-4B80-B916-6653DE8809B8}"/>
-    <cellStyle name="TableStyleLight1 3 3" xfId="137" xr:uid="{BBF46375-A339-40E5-87EE-35A8FBE59910}"/>
-    <cellStyle name="TableStyleLight1 3 4" xfId="148" xr:uid="{BA93EF97-A634-4B5D-9213-261636BB804E}"/>
-    <cellStyle name="TableStyleLight1 3 4 2" xfId="14" xr:uid="{DE12D804-EF79-45C0-8AED-5B7CBB8F1CA8}"/>
-    <cellStyle name="TableStyleLight1 3 4 3" xfId="152" xr:uid="{DBACDBB1-ED5F-4612-8EC9-060F268DCAB5}"/>
-    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="12" xr:uid="{18B189A4-1663-4AD6-AA5A-0CD52215F8FC}"/>
-    <cellStyle name="TableStyleLight1 4" xfId="81" xr:uid="{51FDB510-A9B2-449E-BDFE-5713E6028225}"/>
-    <cellStyle name="TableStyleLight1 4 2" xfId="138" xr:uid="{44698146-DBBE-4DEF-8E56-4E1CB5D63582}"/>
-    <cellStyle name="TableStyleLight1 4 3" xfId="139" xr:uid="{6B97313D-F50A-4223-B22B-C8F3F9CC44BA}"/>
-    <cellStyle name="TableStyleLight1 5" xfId="140" xr:uid="{3600339D-4215-4BD9-A585-9661FC9DED03}"/>
-    <cellStyle name="TableStyleLight1 5 2" xfId="141" xr:uid="{BCC2F900-47E9-4FCE-B448-9F5E10D3ABFE}"/>
-    <cellStyle name="Title 2" xfId="142" xr:uid="{4D856512-40E5-4B2B-8716-ACB6C1C2BE10}"/>
-    <cellStyle name="Total 2" xfId="143" xr:uid="{1867BE5C-283F-4AD9-A17C-6733B7EB7002}"/>
-    <cellStyle name="Warning Text 2" xfId="144" xr:uid="{BAC508A6-BBEC-4404-AC2A-70DB7ED1E809}"/>
+    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 2 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 2 3" xfId="116" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 2 4" xfId="117" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 2 4 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 2 5" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 3" xfId="118" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="121" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="147" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 3 2 4 3" xfId="151" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 3 2 4 3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 3 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 3 4" xfId="146" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 4" xfId="124" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 5" xfId="125" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normal 6" xfId="10" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Note 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Output 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="126" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="TableStyleLight1 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="TableStyleLight1 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="131" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="TableStyleLight1 2 3" xfId="132" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="TableStyleLight1 2 4" xfId="149" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="TableStyleLight1 2 4 2" xfId="150" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="TableStyleLight1 2 4 3" xfId="153" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="TableStyleLight1 3" xfId="133" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="TableStyleLight1 3 2" xfId="134" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="TableStyleLight1 3 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="TableStyleLight1 3 2 3" xfId="136" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="TableStyleLight1 3 3" xfId="137" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="TableStyleLight1 3 4" xfId="148" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3" xfId="152" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="TableStyleLight1 4" xfId="81" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="TableStyleLight1 4 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="TableStyleLight1 4 3" xfId="139" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="TableStyleLight1 5" xfId="140" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="TableStyleLight1 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Title 2" xfId="142" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Total 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Warning Text 2" xfId="144" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3116,7 +3164,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3145,11 +3193,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1420334192"/>
-        <c:axId val="1420343440"/>
+        <c:axId val="1688891872"/>
+        <c:axId val="1688883712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1420334192"/>
+        <c:axId val="1688891872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,7 +3219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1420343440"/>
+        <c:crossAx val="1688883712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3179,7 +3227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1420343440"/>
+        <c:axId val="1688883712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3189,7 +3237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1420334192"/>
+        <c:crossAx val="1688891872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3618,7 +3666,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4501,7 +4549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3870866-58EB-452D-B2B7-6D6FC8A43EAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4519,33 +4567,33 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80" t="s">
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A7" s="76"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4561,7 +4609,7 @@
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="80"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickTop="1">
       <c r="A8" s="70" t="s">
@@ -4569,7 +4617,7 @@
       </c>
       <c r="B8" s="71">
         <f>'Smart-AgGrid'!G7</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="71">
         <f>'Smart-AgGrid'!G8</f>
@@ -4585,7 +4633,7 @@
       </c>
       <c r="F8" s="71">
         <f>SUM(B8:E8)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="72">
         <f>(B8+C8+D8)/(F8)</f>
@@ -4607,7 +4655,7 @@
       </c>
       <c r="B10" s="5">
         <f>SUM(B8:B9)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5">
         <f>SUM(C8:C9)</f>
@@ -4623,7 +4671,7 @@
       </c>
       <c r="F10" s="5">
         <f>SUM(F8:F9)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="6">
         <f>SUM(G8:G8)</f>
@@ -4647,7 +4695,7 @@
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" location="'Smart-AgGrid'!A1" display="SMART-AgGrid" xr:uid="{7B438F5F-C07C-43B8-9678-6633E9D67A7C}"/>
+    <hyperlink ref="A8" location="'Smart-AgGrid'!A1" display="SMART-AgGrid" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4656,11 +4704,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2495776-B5A6-440E-A1A4-537AB79101E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15"/>
@@ -4685,7 +4733,7 @@
       <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="86" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -4694,7 +4742,7 @@
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="82"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
@@ -4704,7 +4752,7 @@
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A4" s="82"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="25" t="s">
         <v>14</v>
       </c>
@@ -4714,7 +4762,7 @@
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="82"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="25" t="s">
         <v>15</v>
       </c>
@@ -4724,7 +4772,7 @@
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="82"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="25" t="s">
         <v>16</v>
       </c>
@@ -4734,7 +4782,7 @@
       <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="82"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="25" t="s">
         <v>17</v>
       </c>
@@ -4744,7 +4792,7 @@
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="82"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="25" t="s">
         <v>18</v>
       </c>
@@ -4754,7 +4802,7 @@
       <c r="D8" s="69"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="82"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="25" t="s">
         <v>19</v>
       </c>
@@ -4764,7 +4812,7 @@
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="82"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="25" t="s">
         <v>20</v>
       </c>
@@ -4774,7 +4822,7 @@
       <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="82"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="25" t="s">
         <v>21</v>
       </c>
@@ -4784,7 +4832,7 @@
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="82"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="25" t="s">
         <v>22</v>
       </c>
@@ -4794,7 +4842,7 @@
       <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="82"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="25" t="s">
         <v>23</v>
       </c>
@@ -4804,7 +4852,7 @@
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="82"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="25" t="s">
         <v>24</v>
       </c>
@@ -4814,14 +4862,14 @@
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="82"/>
+      <c r="A15" s="87"/>
       <c r="C15" s="68" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" s="11" customFormat="1">
-      <c r="A16" s="82"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="26"/>
       <c r="C16" s="22" t="s">
         <v>44</v>
@@ -4831,7 +4879,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="82"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="25" t="s">
         <v>25</v>
       </c>
@@ -4841,7 +4889,7 @@
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="82"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="25" t="s">
         <v>26</v>
       </c>
@@ -4851,7 +4899,7 @@
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="82"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="25" t="s">
         <v>27</v>
       </c>
@@ -4861,7 +4909,7 @@
       <c r="D19" s="69"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="82"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="25" t="s">
         <v>28</v>
       </c>
@@ -4871,7 +4919,7 @@
       <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="82"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="25" t="s">
         <v>58</v>
       </c>
@@ -4881,7 +4929,7 @@
       <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="82"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="25" t="s">
         <v>59</v>
       </c>
@@ -4891,7 +4939,7 @@
       <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" s="11" customFormat="1">
-      <c r="A23" s="82"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="26"/>
       <c r="C23" s="22" t="s">
         <v>46</v>
@@ -4899,7 +4947,7 @@
       <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="82"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="25" t="s">
         <v>159</v>
       </c>
@@ -4909,7 +4957,7 @@
       <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="82"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="25" t="s">
         <v>160</v>
       </c>
@@ -4919,7 +4967,7 @@
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="82"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="25" t="s">
         <v>60</v>
       </c>
@@ -4928,7 +4976,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="82"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="25" t="s">
         <v>61</v>
       </c>
@@ -4938,7 +4986,7 @@
       <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="82"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="25" t="s">
         <v>62</v>
       </c>
@@ -4948,7 +4996,7 @@
       <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="82"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="25" t="s">
         <v>63</v>
       </c>
@@ -4958,15 +5006,26 @@
       <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="82"/>
+      <c r="A30" s="87"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="18"/>
+      <c r="C31" s="75" t="s">
+        <v>225</v>
+      </c>
       <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="77" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="18"/>
@@ -4996,11 +5055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F3B56F-87A8-4CA2-A02B-DE9FFABFA190}">
-  <dimension ref="A1:H945"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H948"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5666,10 +5725,10 @@
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="93"/>
+      <c r="G2" s="98"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="29"/>
@@ -5684,7 +5743,7 @@
       <c r="F3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="74">
         <v>44078</v>
       </c>
     </row>
@@ -5730,17 +5789,17 @@
       <c r="C6" s="31"/>
       <c r="D6" s="32"/>
       <c r="E6" s="29"/>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="29"/>
       <c r="B7" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="98">
+      <c r="C7" s="73">
         <v>44078</v>
       </c>
       <c r="D7" s="32"/>
@@ -5749,8 +5808,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="39">
-        <f>COUNTIF(G11:G1071,"Pass")</f>
-        <v>24</v>
+        <f>COUNTIF(G11:G1074,"Pass")</f>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -5765,7 +5824,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="39">
-        <f>COUNTIF(G12:G1072,"Fail")</f>
+        <f>COUNTIF(G12:G1075,"Fail")</f>
         <v>0</v>
       </c>
     </row>
@@ -5783,7 +5842,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="39">
-        <f>COUNTIF(G13:G1073,"Blocked")</f>
+        <f>COUNTIF(G13:G1076,"Blocked")</f>
         <v>0</v>
       </c>
     </row>
@@ -5799,7 +5858,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="39">
-        <f>COUNTIF(G14:G1074,"Not Executed")</f>
+        <f>COUNTIF(G14:G1077,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
@@ -5810,7 +5869,7 @@
       </c>
       <c r="C11" s="31">
         <f>G7</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="29"/>
@@ -5864,37 +5923,37 @@
       <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
     </row>
     <row r="17" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
     </row>
     <row r="18" spans="1:7" s="51" customFormat="1">
       <c r="A18" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="53" t="s">
         <v>87</v>
       </c>
@@ -5907,14 +5966,14 @@
       <c r="A19" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="88"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
     </row>
     <row r="20" spans="1:7" s="51" customFormat="1">
       <c r="A20" s="56" t="s">
@@ -5962,23 +6021,23 @@
       <c r="A22" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
     </row>
     <row r="23" spans="1:7" s="51" customFormat="1">
       <c r="A23" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="53" t="s">
         <v>87</v>
       </c>
@@ -5991,14 +6050,14 @@
       <c r="A24" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="88"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" s="51" customFormat="1">
       <c r="A25" s="56" t="s">
@@ -6097,23 +6156,23 @@
       <c r="A30" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="96"/>
     </row>
     <row r="31" spans="1:7" s="51" customFormat="1">
       <c r="A31" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="90"/>
       <c r="F31" s="53" t="s">
         <v>87</v>
       </c>
@@ -6126,14 +6185,14 @@
       <c r="A32" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="88"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="93"/>
     </row>
     <row r="33" spans="1:7" s="51" customFormat="1">
       <c r="A33" s="56" t="s">
@@ -6283,23 +6342,23 @@
       <c r="A41" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="89"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="91"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="96"/>
     </row>
     <row r="42" spans="1:7" s="51" customFormat="1">
       <c r="A42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="85"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="90"/>
       <c r="F42" s="53" t="s">
         <v>87</v>
       </c>
@@ -6312,14 +6371,14 @@
       <c r="A43" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="88"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="93"/>
     </row>
     <row r="44" spans="1:7" s="51" customFormat="1">
       <c r="A44" s="56" t="s">
@@ -6399,23 +6458,23 @@
       <c r="A48" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="91"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="96"/>
     </row>
     <row r="49" spans="1:7" s="51" customFormat="1">
       <c r="A49" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="85"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="90"/>
       <c r="F49" s="53" t="s">
         <v>87</v>
       </c>
@@ -6428,14 +6487,14 @@
       <c r="A50" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="88"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="93"/>
     </row>
     <row r="51" spans="1:7" s="51" customFormat="1">
       <c r="A51" s="56" t="s">
@@ -6532,23 +6591,23 @@
       <c r="A56" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="89"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="91"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="96"/>
     </row>
     <row r="57" spans="1:7" s="51" customFormat="1">
       <c r="A57" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="85"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="90"/>
       <c r="F57" s="53" t="s">
         <v>87</v>
       </c>
@@ -6561,14 +6620,14 @@
       <c r="A58" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="88"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="93"/>
     </row>
     <row r="59" spans="1:7" s="51" customFormat="1">
       <c r="A59" s="56" t="s">
@@ -6665,23 +6724,23 @@
       <c r="A64" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="89"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="91"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="96"/>
     </row>
     <row r="65" spans="1:7" s="51" customFormat="1">
       <c r="A65" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="83" t="s">
+      <c r="B65" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="85"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="90"/>
       <c r="F65" s="53" t="s">
         <v>87</v>
       </c>
@@ -6694,14 +6753,14 @@
       <c r="A66" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="86" t="s">
+      <c r="B66" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="88"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="93"/>
     </row>
     <row r="67" spans="1:7" s="51" customFormat="1">
       <c r="A67" s="56" t="s">
@@ -6781,23 +6840,23 @@
       <c r="A71" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="89"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="91"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="96"/>
     </row>
     <row r="72" spans="1:7" s="51" customFormat="1">
       <c r="A72" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="83" t="s">
+      <c r="B72" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="85"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="90"/>
       <c r="F72" s="53" t="s">
         <v>87</v>
       </c>
@@ -6810,14 +6869,14 @@
       <c r="A73" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="86" t="s">
+      <c r="B73" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="88"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="93"/>
     </row>
     <row r="74" spans="1:7" s="51" customFormat="1">
       <c r="A74" s="56" t="s">
@@ -6897,23 +6956,23 @@
       <c r="A78" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="89"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="91"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="96"/>
     </row>
     <row r="79" spans="1:7" s="51" customFormat="1">
       <c r="A79" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B79" s="83" t="s">
+      <c r="B79" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="85"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="90"/>
       <c r="F79" s="53" t="s">
         <v>87</v>
       </c>
@@ -6926,14 +6985,14 @@
       <c r="A80" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="86" t="s">
+      <c r="B80" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="87"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="88"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="92"/>
+      <c r="G80" s="93"/>
     </row>
     <row r="81" spans="1:7" s="51" customFormat="1">
       <c r="A81" s="56" t="s">
@@ -7013,23 +7072,23 @@
       <c r="A85" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="89"/>
-      <c r="C85" s="90"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="90"/>
-      <c r="F85" s="90"/>
-      <c r="G85" s="91"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="95"/>
+      <c r="F85" s="95"/>
+      <c r="G85" s="96"/>
     </row>
     <row r="86" spans="1:7" s="51" customFormat="1">
       <c r="A86" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="B86" s="83" t="s">
+      <c r="B86" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="85"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="90"/>
       <c r="F86" s="53" t="s">
         <v>87</v>
       </c>
@@ -7042,14 +7101,14 @@
       <c r="A87" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="86" t="s">
+      <c r="B87" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="87"/>
-      <c r="D87" s="87"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="88"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="93"/>
     </row>
     <row r="88" spans="1:7" s="51" customFormat="1">
       <c r="A88" s="56" t="s">
@@ -7148,23 +7207,23 @@
       <c r="A93" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="89"/>
-      <c r="C93" s="90"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="90"/>
-      <c r="F93" s="90"/>
-      <c r="G93" s="91"/>
+      <c r="B93" s="94"/>
+      <c r="C93" s="95"/>
+      <c r="D93" s="95"/>
+      <c r="E93" s="95"/>
+      <c r="F93" s="95"/>
+      <c r="G93" s="96"/>
     </row>
     <row r="94" spans="1:7" s="51" customFormat="1">
       <c r="A94" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="B94" s="83" t="s">
+      <c r="B94" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="C94" s="84"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="85"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="90"/>
       <c r="F94" s="53" t="s">
         <v>87</v>
       </c>
@@ -7177,14 +7236,14 @@
       <c r="A95" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="86" t="s">
+      <c r="B95" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="87"/>
-      <c r="D95" s="87"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="87"/>
-      <c r="G95" s="88"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="93"/>
     </row>
     <row r="96" spans="1:7" s="51" customFormat="1">
       <c r="A96" s="56" t="s">
@@ -7281,23 +7340,23 @@
       <c r="A101" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="89"/>
-      <c r="C101" s="90"/>
-      <c r="D101" s="90"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="91"/>
+      <c r="B101" s="94"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="95"/>
+      <c r="G101" s="96"/>
     </row>
     <row r="102" spans="1:7" s="51" customFormat="1">
       <c r="A102" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B102" s="83" t="s">
+      <c r="B102" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C102" s="84"/>
-      <c r="D102" s="84"/>
-      <c r="E102" s="85"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="90"/>
       <c r="F102" s="53" t="s">
         <v>87</v>
       </c>
@@ -7310,14 +7369,14 @@
       <c r="A103" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B103" s="86" t="s">
+      <c r="B103" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C103" s="87"/>
-      <c r="D103" s="87"/>
-      <c r="E103" s="87"/>
-      <c r="F103" s="87"/>
-      <c r="G103" s="88"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="93"/>
     </row>
     <row r="104" spans="1:7" s="51" customFormat="1">
       <c r="A104" s="56" t="s">
@@ -7431,23 +7490,23 @@
       <c r="A110" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="89"/>
-      <c r="C110" s="90"/>
-      <c r="D110" s="90"/>
-      <c r="E110" s="90"/>
-      <c r="F110" s="90"/>
-      <c r="G110" s="91"/>
+      <c r="B110" s="94"/>
+      <c r="C110" s="95"/>
+      <c r="D110" s="95"/>
+      <c r="E110" s="95"/>
+      <c r="F110" s="95"/>
+      <c r="G110" s="96"/>
     </row>
     <row r="111" spans="1:7" s="51" customFormat="1">
       <c r="A111" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="B111" s="83" t="s">
+      <c r="B111" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="C111" s="84"/>
-      <c r="D111" s="84"/>
-      <c r="E111" s="85"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="90"/>
       <c r="F111" s="53" t="s">
         <v>87</v>
       </c>
@@ -7460,14 +7519,14 @@
       <c r="A112" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="86" t="s">
+      <c r="B112" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C112" s="87"/>
-      <c r="D112" s="87"/>
-      <c r="E112" s="87"/>
-      <c r="F112" s="87"/>
-      <c r="G112" s="88"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="92"/>
+      <c r="E112" s="92"/>
+      <c r="F112" s="92"/>
+      <c r="G112" s="93"/>
     </row>
     <row r="113" spans="1:7" s="51" customFormat="1">
       <c r="A113" s="56" t="s">
@@ -7549,23 +7608,23 @@
       <c r="A117" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B117" s="89"/>
-      <c r="C117" s="90"/>
-      <c r="D117" s="90"/>
-      <c r="E117" s="90"/>
-      <c r="F117" s="90"/>
-      <c r="G117" s="91"/>
+      <c r="B117" s="94"/>
+      <c r="C117" s="95"/>
+      <c r="D117" s="95"/>
+      <c r="E117" s="95"/>
+      <c r="F117" s="95"/>
+      <c r="G117" s="96"/>
     </row>
     <row r="118" spans="1:7" s="51" customFormat="1">
       <c r="A118" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="B118" s="83" t="s">
+      <c r="B118" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C118" s="84"/>
-      <c r="D118" s="84"/>
-      <c r="E118" s="85"/>
+      <c r="C118" s="89"/>
+      <c r="D118" s="89"/>
+      <c r="E118" s="90"/>
       <c r="F118" s="53" t="s">
         <v>87</v>
       </c>
@@ -7578,14 +7637,14 @@
       <c r="A119" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B119" s="86" t="s">
+      <c r="B119" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C119" s="87"/>
-      <c r="D119" s="87"/>
-      <c r="E119" s="87"/>
-      <c r="F119" s="87"/>
-      <c r="G119" s="88"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="92"/>
+      <c r="E119" s="92"/>
+      <c r="F119" s="92"/>
+      <c r="G119" s="93"/>
     </row>
     <row r="120" spans="1:7" s="51" customFormat="1">
       <c r="A120" s="56" t="s">
@@ -7665,23 +7724,23 @@
       <c r="A124" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B124" s="89"/>
-      <c r="C124" s="90"/>
-      <c r="D124" s="90"/>
-      <c r="E124" s="90"/>
-      <c r="F124" s="90"/>
-      <c r="G124" s="91"/>
+      <c r="B124" s="94"/>
+      <c r="C124" s="95"/>
+      <c r="D124" s="95"/>
+      <c r="E124" s="95"/>
+      <c r="F124" s="95"/>
+      <c r="G124" s="96"/>
     </row>
     <row r="125" spans="1:7" s="51" customFormat="1">
       <c r="A125" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="B125" s="83" t="s">
+      <c r="B125" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="84"/>
-      <c r="D125" s="84"/>
-      <c r="E125" s="85"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="89"/>
+      <c r="E125" s="90"/>
       <c r="F125" s="53" t="s">
         <v>87</v>
       </c>
@@ -7694,14 +7753,14 @@
       <c r="A126" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="86" t="s">
+      <c r="B126" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C126" s="87"/>
-      <c r="D126" s="87"/>
-      <c r="E126" s="87"/>
-      <c r="F126" s="87"/>
-      <c r="G126" s="88"/>
+      <c r="C126" s="92"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="92"/>
+      <c r="F126" s="92"/>
+      <c r="G126" s="93"/>
     </row>
     <row r="127" spans="1:7" s="51" customFormat="1">
       <c r="A127" s="56" t="s">
@@ -7798,23 +7857,23 @@
       <c r="A132" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B132" s="89"/>
-      <c r="C132" s="90"/>
-      <c r="D132" s="90"/>
-      <c r="E132" s="90"/>
-      <c r="F132" s="90"/>
-      <c r="G132" s="91"/>
+      <c r="B132" s="94"/>
+      <c r="C132" s="95"/>
+      <c r="D132" s="95"/>
+      <c r="E132" s="95"/>
+      <c r="F132" s="95"/>
+      <c r="G132" s="96"/>
     </row>
     <row r="133" spans="1:7" s="51" customFormat="1">
       <c r="A133" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="B133" s="83" t="s">
+      <c r="B133" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="C133" s="84"/>
-      <c r="D133" s="84"/>
-      <c r="E133" s="85"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="89"/>
+      <c r="E133" s="90"/>
       <c r="F133" s="53" t="s">
         <v>87</v>
       </c>
@@ -7827,14 +7886,14 @@
       <c r="A134" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B134" s="86" t="s">
+      <c r="B134" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C134" s="87"/>
-      <c r="D134" s="87"/>
-      <c r="E134" s="87"/>
-      <c r="F134" s="87"/>
-      <c r="G134" s="88"/>
+      <c r="C134" s="92"/>
+      <c r="D134" s="92"/>
+      <c r="E134" s="92"/>
+      <c r="F134" s="92"/>
+      <c r="G134" s="93"/>
     </row>
     <row r="135" spans="1:7" s="51" customFormat="1">
       <c r="A135" s="56" t="s">
@@ -7914,23 +7973,23 @@
       <c r="A139" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B139" s="89"/>
-      <c r="C139" s="90"/>
-      <c r="D139" s="90"/>
-      <c r="E139" s="90"/>
-      <c r="F139" s="90"/>
-      <c r="G139" s="91"/>
+      <c r="B139" s="94"/>
+      <c r="C139" s="95"/>
+      <c r="D139" s="95"/>
+      <c r="E139" s="95"/>
+      <c r="F139" s="95"/>
+      <c r="G139" s="96"/>
     </row>
     <row r="140" spans="1:7" s="51" customFormat="1">
       <c r="A140" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="B140" s="83" t="s">
+      <c r="B140" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="C140" s="84"/>
-      <c r="D140" s="84"/>
-      <c r="E140" s="85"/>
+      <c r="C140" s="89"/>
+      <c r="D140" s="89"/>
+      <c r="E140" s="90"/>
       <c r="F140" s="53" t="s">
         <v>87</v>
       </c>
@@ -7943,14 +8002,14 @@
       <c r="A141" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B141" s="86" t="s">
+      <c r="B141" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C141" s="87"/>
-      <c r="D141" s="87"/>
-      <c r="E141" s="87"/>
-      <c r="F141" s="87"/>
-      <c r="G141" s="88"/>
+      <c r="C141" s="92"/>
+      <c r="D141" s="92"/>
+      <c r="E141" s="92"/>
+      <c r="F141" s="92"/>
+      <c r="G141" s="93"/>
     </row>
     <row r="142" spans="1:7" s="51" customFormat="1">
       <c r="A142" s="56" t="s">
@@ -8030,23 +8089,23 @@
       <c r="A146" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B146" s="89"/>
-      <c r="C146" s="90"/>
-      <c r="D146" s="90"/>
-      <c r="E146" s="90"/>
-      <c r="F146" s="90"/>
-      <c r="G146" s="91"/>
+      <c r="B146" s="94"/>
+      <c r="C146" s="95"/>
+      <c r="D146" s="95"/>
+      <c r="E146" s="95"/>
+      <c r="F146" s="95"/>
+      <c r="G146" s="96"/>
     </row>
     <row r="147" spans="1:7" s="51" customFormat="1">
       <c r="A147" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="B147" s="83" t="s">
+      <c r="B147" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="C147" s="84"/>
-      <c r="D147" s="84"/>
-      <c r="E147" s="85"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="89"/>
+      <c r="E147" s="90"/>
       <c r="F147" s="53" t="s">
         <v>87</v>
       </c>
@@ -8059,14 +8118,14 @@
       <c r="A148" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B148" s="86" t="s">
+      <c r="B148" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C148" s="87"/>
-      <c r="D148" s="87"/>
-      <c r="E148" s="87"/>
-      <c r="F148" s="87"/>
-      <c r="G148" s="88"/>
+      <c r="C148" s="92"/>
+      <c r="D148" s="92"/>
+      <c r="E148" s="92"/>
+      <c r="F148" s="92"/>
+      <c r="G148" s="93"/>
     </row>
     <row r="149" spans="1:7" s="51" customFormat="1">
       <c r="A149" s="56" t="s">
@@ -8146,23 +8205,23 @@
       <c r="A153" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B153" s="89"/>
-      <c r="C153" s="90"/>
-      <c r="D153" s="90"/>
-      <c r="E153" s="90"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="91"/>
+      <c r="B153" s="94"/>
+      <c r="C153" s="95"/>
+      <c r="D153" s="95"/>
+      <c r="E153" s="95"/>
+      <c r="F153" s="95"/>
+      <c r="G153" s="96"/>
     </row>
     <row r="154" spans="1:7" s="51" customFormat="1">
       <c r="A154" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="B154" s="83" t="s">
+      <c r="B154" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="C154" s="84"/>
-      <c r="D154" s="84"/>
-      <c r="E154" s="85"/>
+      <c r="C154" s="89"/>
+      <c r="D154" s="89"/>
+      <c r="E154" s="90"/>
       <c r="F154" s="53" t="s">
         <v>87</v>
       </c>
@@ -8175,14 +8234,14 @@
       <c r="A155" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B155" s="86" t="s">
+      <c r="B155" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C155" s="87"/>
-      <c r="D155" s="87"/>
-      <c r="E155" s="87"/>
-      <c r="F155" s="87"/>
-      <c r="G155" s="88"/>
+      <c r="C155" s="92"/>
+      <c r="D155" s="92"/>
+      <c r="E155" s="92"/>
+      <c r="F155" s="92"/>
+      <c r="G155" s="93"/>
     </row>
     <row r="156" spans="1:7" s="51" customFormat="1">
       <c r="A156" s="56" t="s">
@@ -8245,23 +8304,23 @@
       <c r="A159" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B159" s="89"/>
-      <c r="C159" s="90"/>
-      <c r="D159" s="90"/>
-      <c r="E159" s="90"/>
-      <c r="F159" s="90"/>
-      <c r="G159" s="91"/>
+      <c r="B159" s="94"/>
+      <c r="C159" s="95"/>
+      <c r="D159" s="95"/>
+      <c r="E159" s="95"/>
+      <c r="F159" s="95"/>
+      <c r="G159" s="96"/>
     </row>
     <row r="160" spans="1:7" s="51" customFormat="1">
       <c r="A160" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B160" s="83" t="s">
+      <c r="B160" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="C160" s="84"/>
-      <c r="D160" s="84"/>
-      <c r="E160" s="85"/>
+      <c r="C160" s="89"/>
+      <c r="D160" s="89"/>
+      <c r="E160" s="90"/>
       <c r="F160" s="53" t="s">
         <v>87</v>
       </c>
@@ -8274,14 +8333,14 @@
       <c r="A161" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B161" s="86" t="s">
+      <c r="B161" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C161" s="87"/>
-      <c r="D161" s="87"/>
-      <c r="E161" s="87"/>
-      <c r="F161" s="87"/>
-      <c r="G161" s="88"/>
+      <c r="C161" s="92"/>
+      <c r="D161" s="92"/>
+      <c r="E161" s="92"/>
+      <c r="F161" s="92"/>
+      <c r="G161" s="93"/>
     </row>
     <row r="162" spans="1:7" s="51" customFormat="1">
       <c r="A162" s="56" t="s">
@@ -8361,23 +8420,23 @@
       <c r="A166" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B166" s="89"/>
-      <c r="C166" s="90"/>
-      <c r="D166" s="90"/>
-      <c r="E166" s="90"/>
-      <c r="F166" s="90"/>
-      <c r="G166" s="91"/>
+      <c r="B166" s="94"/>
+      <c r="C166" s="95"/>
+      <c r="D166" s="95"/>
+      <c r="E166" s="95"/>
+      <c r="F166" s="95"/>
+      <c r="G166" s="96"/>
     </row>
     <row r="167" spans="1:7" s="51" customFormat="1">
       <c r="A167" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="B167" s="83" t="s">
+      <c r="B167" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="C167" s="84"/>
-      <c r="D167" s="84"/>
-      <c r="E167" s="85"/>
+      <c r="C167" s="89"/>
+      <c r="D167" s="89"/>
+      <c r="E167" s="90"/>
       <c r="F167" s="53" t="s">
         <v>87</v>
       </c>
@@ -8390,14 +8449,14 @@
       <c r="A168" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B168" s="86" t="s">
+      <c r="B168" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C168" s="87"/>
-      <c r="D168" s="87"/>
-      <c r="E168" s="87"/>
-      <c r="F168" s="87"/>
-      <c r="G168" s="88"/>
+      <c r="C168" s="92"/>
+      <c r="D168" s="92"/>
+      <c r="E168" s="92"/>
+      <c r="F168" s="92"/>
+      <c r="G168" s="93"/>
     </row>
     <row r="169" spans="1:7" s="51" customFormat="1">
       <c r="A169" s="56" t="s">
@@ -8477,23 +8536,23 @@
       <c r="A173" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B173" s="89"/>
-      <c r="C173" s="90"/>
-      <c r="D173" s="90"/>
-      <c r="E173" s="90"/>
-      <c r="F173" s="90"/>
-      <c r="G173" s="91"/>
+      <c r="B173" s="94"/>
+      <c r="C173" s="95"/>
+      <c r="D173" s="95"/>
+      <c r="E173" s="95"/>
+      <c r="F173" s="95"/>
+      <c r="G173" s="96"/>
     </row>
     <row r="174" spans="1:7" s="51" customFormat="1">
       <c r="A174" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="B174" s="83" t="s">
+      <c r="B174" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C174" s="84"/>
-      <c r="D174" s="84"/>
-      <c r="E174" s="85"/>
+      <c r="C174" s="89"/>
+      <c r="D174" s="89"/>
+      <c r="E174" s="90"/>
       <c r="F174" s="53" t="s">
         <v>87</v>
       </c>
@@ -8506,14 +8565,14 @@
       <c r="A175" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B175" s="86" t="s">
+      <c r="B175" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C175" s="87"/>
-      <c r="D175" s="87"/>
-      <c r="E175" s="87"/>
-      <c r="F175" s="87"/>
-      <c r="G175" s="88"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="92"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="92"/>
+      <c r="G175" s="93"/>
     </row>
     <row r="176" spans="1:7" s="51" customFormat="1">
       <c r="A176" s="56" t="s">
@@ -8616,23 +8675,23 @@
       <c r="A181" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B181" s="89"/>
-      <c r="C181" s="90"/>
-      <c r="D181" s="90"/>
-      <c r="E181" s="90"/>
-      <c r="F181" s="90"/>
-      <c r="G181" s="91"/>
+      <c r="B181" s="94"/>
+      <c r="C181" s="95"/>
+      <c r="D181" s="95"/>
+      <c r="E181" s="95"/>
+      <c r="F181" s="95"/>
+      <c r="G181" s="96"/>
     </row>
     <row r="182" spans="1:7" s="51" customFormat="1">
       <c r="A182" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="B182" s="83" t="s">
+      <c r="B182" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="C182" s="84"/>
-      <c r="D182" s="84"/>
-      <c r="E182" s="85"/>
+      <c r="C182" s="89"/>
+      <c r="D182" s="89"/>
+      <c r="E182" s="90"/>
       <c r="F182" s="53" t="s">
         <v>87</v>
       </c>
@@ -8645,14 +8704,14 @@
       <c r="A183" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B183" s="86" t="s">
+      <c r="B183" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C183" s="87"/>
-      <c r="D183" s="87"/>
-      <c r="E183" s="87"/>
-      <c r="F183" s="87"/>
-      <c r="G183" s="88"/>
+      <c r="C183" s="92"/>
+      <c r="D183" s="92"/>
+      <c r="E183" s="92"/>
+      <c r="F183" s="92"/>
+      <c r="G183" s="93"/>
     </row>
     <row r="184" spans="1:7" s="51" customFormat="1">
       <c r="A184" s="56" t="s">
@@ -8732,23 +8791,23 @@
       <c r="A188" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B188" s="89"/>
-      <c r="C188" s="90"/>
-      <c r="D188" s="90"/>
-      <c r="E188" s="90"/>
-      <c r="F188" s="90"/>
-      <c r="G188" s="91"/>
+      <c r="B188" s="94"/>
+      <c r="C188" s="95"/>
+      <c r="D188" s="95"/>
+      <c r="E188" s="95"/>
+      <c r="F188" s="95"/>
+      <c r="G188" s="96"/>
     </row>
     <row r="189" spans="1:7" s="51" customFormat="1">
       <c r="A189" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="B189" s="83" t="s">
+      <c r="B189" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="C189" s="84"/>
-      <c r="D189" s="84"/>
-      <c r="E189" s="85"/>
+      <c r="C189" s="89"/>
+      <c r="D189" s="89"/>
+      <c r="E189" s="90"/>
       <c r="F189" s="53" t="s">
         <v>87</v>
       </c>
@@ -8761,14 +8820,14 @@
       <c r="A190" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B190" s="86" t="s">
+      <c r="B190" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C190" s="87"/>
-      <c r="D190" s="87"/>
-      <c r="E190" s="87"/>
-      <c r="F190" s="87"/>
-      <c r="G190" s="88"/>
+      <c r="C190" s="92"/>
+      <c r="D190" s="92"/>
+      <c r="E190" s="92"/>
+      <c r="F190" s="92"/>
+      <c r="G190" s="93"/>
     </row>
     <row r="191" spans="1:7" s="51" customFormat="1">
       <c r="A191" s="56" t="s">
@@ -8850,102 +8909,181 @@
       <c r="A195" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B195" s="89"/>
-      <c r="C195" s="90"/>
-      <c r="D195" s="90"/>
-      <c r="E195" s="90"/>
-      <c r="F195" s="90"/>
-      <c r="G195" s="91"/>
+      <c r="B195" s="94"/>
+      <c r="C195" s="95"/>
+      <c r="D195" s="95"/>
+      <c r="E195" s="95"/>
+      <c r="F195" s="95"/>
+      <c r="G195" s="96"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="32"/>
-      <c r="B196" s="32"/>
-      <c r="C196" s="32"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="32"/>
-      <c r="F196" s="32"/>
-      <c r="G196" s="32"/>
+      <c r="A196" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="B196" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="C196" s="89"/>
+      <c r="D196" s="89"/>
+      <c r="E196" s="90"/>
+      <c r="F196" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G196" s="54" t="str">
+        <f>IF(COUNTIF(F199:F204,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F199:F204,"Fail")&gt;0,"Fail",IF(COUNTIF(F199:F204,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="32"/>
-      <c r="B197" s="32"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="32"/>
-      <c r="G197" s="32"/>
+      <c r="A197" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B197" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C197" s="92"/>
+      <c r="D197" s="92"/>
+      <c r="E197" s="92"/>
+      <c r="F197" s="92"/>
+      <c r="G197" s="93"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="32"/>
-      <c r="B198" s="32"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="32"/>
-      <c r="F198" s="32"/>
-      <c r="G198" s="32"/>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="32"/>
-      <c r="B199" s="32"/>
-      <c r="C199" s="32"/>
-      <c r="D199" s="32"/>
-      <c r="E199" s="32"/>
-      <c r="F199" s="32"/>
-      <c r="G199" s="32"/>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="32"/>
-      <c r="B200" s="32"/>
-      <c r="C200" s="32"/>
-      <c r="D200" s="32"/>
-      <c r="E200" s="32"/>
-      <c r="F200" s="32"/>
-      <c r="G200" s="32"/>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="32"/>
-      <c r="B201" s="32"/>
-      <c r="C201" s="32"/>
-      <c r="D201" s="32"/>
-      <c r="E201" s="32"/>
-      <c r="F201" s="32"/>
-      <c r="G201" s="32"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="32"/>
-      <c r="B202" s="32"/>
-      <c r="C202" s="32"/>
-      <c r="D202" s="32"/>
-      <c r="E202" s="32"/>
-      <c r="F202" s="32"/>
-      <c r="G202" s="32"/>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="32"/>
-      <c r="B203" s="32"/>
-      <c r="C203" s="32"/>
-      <c r="D203" s="32"/>
-      <c r="E203" s="32"/>
-      <c r="F203" s="32"/>
-      <c r="G203" s="32"/>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="32"/>
-      <c r="B204" s="32"/>
-      <c r="C204" s="32"/>
-      <c r="D204" s="32"/>
-      <c r="E204" s="32"/>
-      <c r="F204" s="32"/>
-      <c r="G204" s="32"/>
+      <c r="A198" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B198" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C198" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D198" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E198" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F198" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="G198" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="150">
+      <c r="A199" s="57">
+        <v>1</v>
+      </c>
+      <c r="B199" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C199" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D199" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E199" s="59"/>
+      <c r="F199" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G199" s="61"/>
+    </row>
+    <row r="200" spans="1:7" ht="105">
+      <c r="A200" s="57">
+        <v>2</v>
+      </c>
+      <c r="B200" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C200" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D200" s="59"/>
+      <c r="E200" s="59"/>
+      <c r="F200" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G200" s="61"/>
+    </row>
+    <row r="201" spans="1:7" ht="45">
+      <c r="A201" s="57">
+        <v>3</v>
+      </c>
+      <c r="B201" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C201" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="D201" s="59"/>
+      <c r="E201" s="59"/>
+      <c r="F201" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G201" s="61"/>
+    </row>
+    <row r="202" spans="1:7" ht="30">
+      <c r="A202" s="57">
+        <v>4</v>
+      </c>
+      <c r="B202" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C202" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D202" s="59"/>
+      <c r="E202" s="57"/>
+      <c r="F202" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G202" s="59"/>
+    </row>
+    <row r="203" spans="1:7" ht="30">
+      <c r="A203" s="57">
+        <v>5</v>
+      </c>
+      <c r="B203" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C203" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D203" s="59"/>
+      <c r="E203" s="57"/>
+      <c r="F203" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G203" s="59"/>
+    </row>
+    <row r="204" spans="1:7" ht="30">
+      <c r="A204" s="57">
+        <v>6</v>
+      </c>
+      <c r="B204" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C204" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="D204" s="59"/>
+      <c r="E204" s="57"/>
+      <c r="F204" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G204" s="59"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="32"/>
-      <c r="B205" s="32"/>
-      <c r="C205" s="32"/>
-      <c r="D205" s="32"/>
-      <c r="E205" s="32"/>
-      <c r="F205" s="32"/>
-      <c r="G205" s="32"/>
+      <c r="A205" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B205" s="94"/>
+      <c r="C205" s="95"/>
+      <c r="D205" s="95"/>
+      <c r="E205" s="95"/>
+      <c r="F205" s="95"/>
+      <c r="G205" s="96"/>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="32"/>
@@ -10846,7 +10984,7 @@
       <c r="F416" s="32"/>
       <c r="G416" s="32"/>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:7">
       <c r="A417" s="32"/>
       <c r="B417" s="32"/>
       <c r="C417" s="32"/>
@@ -10855,7 +10993,7 @@
       <c r="F417" s="32"/>
       <c r="G417" s="32"/>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:7">
       <c r="A418" s="32"/>
       <c r="B418" s="32"/>
       <c r="C418" s="32"/>
@@ -10864,7 +11002,7 @@
       <c r="F418" s="32"/>
       <c r="G418" s="32"/>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:7">
       <c r="A419" s="32"/>
       <c r="B419" s="32"/>
       <c r="C419" s="32"/>
@@ -10873,7 +11011,7 @@
       <c r="F419" s="32"/>
       <c r="G419" s="32"/>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:7">
       <c r="A420" s="32"/>
       <c r="B420" s="32"/>
       <c r="C420" s="32"/>
@@ -10882,7 +11020,7 @@
       <c r="F420" s="32"/>
       <c r="G420" s="32"/>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:7">
       <c r="A421" s="32"/>
       <c r="B421" s="32"/>
       <c r="C421" s="32"/>
@@ -10891,7 +11029,7 @@
       <c r="F421" s="32"/>
       <c r="G421" s="32"/>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:7">
       <c r="A422" s="32"/>
       <c r="B422" s="32"/>
       <c r="C422" s="32"/>
@@ -10900,7 +11038,7 @@
       <c r="F422" s="32"/>
       <c r="G422" s="32"/>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:7">
       <c r="A423" s="32"/>
       <c r="B423" s="32"/>
       <c r="C423" s="32"/>
@@ -10909,7 +11047,7 @@
       <c r="F423" s="32"/>
       <c r="G423" s="32"/>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:7">
       <c r="A424" s="32"/>
       <c r="B424" s="32"/>
       <c r="C424" s="32"/>
@@ -10918,7 +11056,7 @@
       <c r="F424" s="32"/>
       <c r="G424" s="32"/>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:7">
       <c r="A425" s="32"/>
       <c r="B425" s="32"/>
       <c r="C425" s="32"/>
@@ -10927,7 +11065,7 @@
       <c r="F425" s="32"/>
       <c r="G425" s="32"/>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:7">
       <c r="A426" s="32"/>
       <c r="B426" s="32"/>
       <c r="C426" s="32"/>
@@ -10936,7 +11074,7 @@
       <c r="F426" s="32"/>
       <c r="G426" s="32"/>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:7">
       <c r="A427" s="32"/>
       <c r="B427" s="32"/>
       <c r="C427" s="32"/>
@@ -10945,56 +11083,56 @@
       <c r="F427" s="32"/>
       <c r="G427" s="32"/>
     </row>
-    <row r="428" spans="1:8" ht="15.75">
-      <c r="A428" s="29"/>
-      <c r="B428" s="47"/>
-      <c r="C428" s="47"/>
-      <c r="D428" s="64"/>
-      <c r="E428" s="65"/>
-      <c r="F428" s="66"/>
-    </row>
-    <row r="429" spans="1:8" ht="15.75">
-      <c r="A429" s="29"/>
-      <c r="B429" s="47"/>
-      <c r="C429" s="47"/>
-      <c r="D429" s="64"/>
-      <c r="E429" s="65"/>
-      <c r="F429" s="66"/>
-    </row>
-    <row r="430" spans="1:8" ht="15.75">
-      <c r="A430" s="29"/>
-      <c r="B430" s="47"/>
-      <c r="C430" s="47"/>
-      <c r="D430" s="64"/>
-      <c r="E430" s="65"/>
-      <c r="F430" s="66"/>
-    </row>
-    <row r="431" spans="1:8" s="48" customFormat="1" ht="15.75">
+    <row r="428" spans="1:7">
+      <c r="A428" s="32"/>
+      <c r="B428" s="32"/>
+      <c r="C428" s="32"/>
+      <c r="D428" s="32"/>
+      <c r="E428" s="32"/>
+      <c r="F428" s="32"/>
+      <c r="G428" s="32"/>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="32"/>
+      <c r="B429" s="32"/>
+      <c r="C429" s="32"/>
+      <c r="D429" s="32"/>
+      <c r="E429" s="32"/>
+      <c r="F429" s="32"/>
+      <c r="G429" s="32"/>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="32"/>
+      <c r="B430" s="32"/>
+      <c r="C430" s="32"/>
+      <c r="D430" s="32"/>
+      <c r="E430" s="32"/>
+      <c r="F430" s="32"/>
+      <c r="G430" s="32"/>
+    </row>
+    <row r="431" spans="1:7" ht="15.75">
       <c r="A431" s="29"/>
       <c r="B431" s="47"/>
       <c r="C431" s="47"/>
       <c r="D431" s="64"/>
       <c r="E431" s="65"/>
       <c r="F431" s="66"/>
-      <c r="H431" s="28"/>
-    </row>
-    <row r="432" spans="1:8" s="48" customFormat="1" ht="15.75">
+    </row>
+    <row r="432" spans="1:7" ht="15.75">
       <c r="A432" s="29"/>
       <c r="B432" s="47"/>
       <c r="C432" s="47"/>
       <c r="D432" s="64"/>
       <c r="E432" s="65"/>
       <c r="F432" s="66"/>
-      <c r="H432" s="28"/>
-    </row>
-    <row r="433" spans="1:8" s="48" customFormat="1" ht="15.75">
+    </row>
+    <row r="433" spans="1:8" ht="15.75">
       <c r="A433" s="29"/>
       <c r="B433" s="47"/>
       <c r="C433" s="47"/>
       <c r="D433" s="64"/>
       <c r="E433" s="65"/>
       <c r="F433" s="66"/>
-      <c r="H433" s="28"/>
     </row>
     <row r="434" spans="1:8" s="48" customFormat="1" ht="15.75">
       <c r="A434" s="29"/>
@@ -15604,32 +15742,49 @@
       <c r="F945" s="66"/>
       <c r="H945" s="28"/>
     </row>
+    <row r="946" spans="1:8" s="48" customFormat="1" ht="15.75">
+      <c r="A946" s="29"/>
+      <c r="B946" s="47"/>
+      <c r="C946" s="47"/>
+      <c r="D946" s="64"/>
+      <c r="E946" s="65"/>
+      <c r="F946" s="66"/>
+      <c r="H946" s="28"/>
+    </row>
+    <row r="947" spans="1:8" s="48" customFormat="1" ht="15.75">
+      <c r="A947" s="29"/>
+      <c r="B947" s="47"/>
+      <c r="C947" s="47"/>
+      <c r="D947" s="64"/>
+      <c r="E947" s="65"/>
+      <c r="F947" s="66"/>
+      <c r="H947" s="28"/>
+    </row>
+    <row r="948" spans="1:8" s="48" customFormat="1" ht="15.75">
+      <c r="A948" s="29"/>
+      <c r="B948" s="47"/>
+      <c r="C948" s="47"/>
+      <c r="D948" s="64"/>
+      <c r="E948" s="65"/>
+      <c r="F948" s="66"/>
+      <c r="H948" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="B183:G183"/>
+  <mergeCells count="79">
     <mergeCell ref="B188:G188"/>
     <mergeCell ref="B189:E189"/>
     <mergeCell ref="B190:G190"/>
     <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B173:G173"/>
     <mergeCell ref="B174:E174"/>
     <mergeCell ref="B175:G175"/>
     <mergeCell ref="B181:G181"/>
     <mergeCell ref="B182:E182"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B166:G166"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B168:G168"/>
-    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B183:G183"/>
     <mergeCell ref="B154:E154"/>
     <mergeCell ref="B155:G155"/>
     <mergeCell ref="B159:G159"/>
     <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B173:G173"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="B57:E57"/>
@@ -15674,17 +15829,30 @@
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="B117:G117"/>
     <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B139:G139"/>
     <mergeCell ref="B119:G119"/>
     <mergeCell ref="B124:G124"/>
     <mergeCell ref="B125:E125"/>
     <mergeCell ref="B126:G126"/>
     <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="B197:G197"/>
+    <mergeCell ref="B205:G205"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:G168"/>
+    <mergeCell ref="B153:G153"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F428:F430 F435:F441 F654:F656 F644:F649 F446:F455 F460:F463 F468:F473 F478:F486 F491:F500 F505:F515 F520:F530 F546:F552 F574:F576 F535:F541 F557:F563 F568:F569 F581:F587 F592:F598 F614:F616 F603:F609 F621:F624 F629:F631 F636:F639 F21 F192:F194 F26:F29 F45:F47 F52:F55 F68:F70 F75:F77 F82:F84 F89:F92 F97:F100 F105:F109 F114:F116 F121:F123 F128:F131 F60:F63 F136:F138 F143:F145 F150:F152 F157:F158 F163:F165 F170:F172 F177:F180 F185:F187 F34:F40" xr:uid="{5029B0A7-1B54-47A0-92BC-E25D055A16DD}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F431:F433 F438:F444 F657:F659 F647:F652 F449:F458 F463:F466 F471:F476 F481:F489 F494:F503 F508:F518 F523:F533 F549:F555 F577:F579 F538:F544 F560:F566 F571:F572 F584:F590 F595:F601 F617:F619 F606:F612 F624:F627 F632:F634 F639:F642 F21 F192:F194 F26:F29 F45:F47 F52:F55 F68:F70 F75:F77 F82:F84 F89:F92 F97:F100 F105:F109 F114:F116 F121:F123 F128:F131 F60:F63 F136:F138 F143:F145 F150:F152 F157:F158 F163:F165 F170:F172 F177:F180 F185:F187 F34:F40 F199:F204" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15699,7 +15867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6EC97F-538C-4B68-B99C-B78AD1AD540E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/TCS_NEWUI_AgGrid.xlsx
+++ b/TCS_NEWUI_AgGrid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2949F298-A8D7-4EEA-8E1B-B2C894F1C7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD77FC2-EDA9-43AE-9C59-347BD0C0B08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2721,6 +2721,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="42" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2738,15 +2747,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="33" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="42" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4707,8 +4707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15"/>
@@ -5948,12 +5948,12 @@
       <c r="A18" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="53" t="s">
         <v>87</v>
       </c>
@@ -5966,14 +5966,14 @@
       <c r="A19" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
     </row>
     <row r="20" spans="1:7" s="51" customFormat="1">
       <c r="A20" s="56" t="s">
@@ -6021,23 +6021,23 @@
       <c r="A22" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" s="51" customFormat="1">
       <c r="A23" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="53" t="s">
         <v>87</v>
       </c>
@@ -6050,14 +6050,14 @@
       <c r="A24" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="93"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
     </row>
     <row r="25" spans="1:7" s="51" customFormat="1">
       <c r="A25" s="56" t="s">
@@ -6156,23 +6156,23 @@
       <c r="A30" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="96"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="90"/>
     </row>
     <row r="31" spans="1:7" s="51" customFormat="1">
       <c r="A31" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="90"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="53" t="s">
         <v>87</v>
       </c>
@@ -6185,14 +6185,14 @@
       <c r="A32" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="93"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="96"/>
     </row>
     <row r="33" spans="1:7" s="51" customFormat="1">
       <c r="A33" s="56" t="s">
@@ -6342,23 +6342,23 @@
       <c r="A41" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="96"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="90"/>
     </row>
     <row r="42" spans="1:7" s="51" customFormat="1">
       <c r="A42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="90"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="93"/>
       <c r="F42" s="53" t="s">
         <v>87</v>
       </c>
@@ -6371,14 +6371,14 @@
       <c r="A43" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="93"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="96"/>
     </row>
     <row r="44" spans="1:7" s="51" customFormat="1">
       <c r="A44" s="56" t="s">
@@ -6458,23 +6458,23 @@
       <c r="A48" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="94"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="96"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="90"/>
     </row>
     <row r="49" spans="1:7" s="51" customFormat="1">
       <c r="A49" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="90"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="93"/>
       <c r="F49" s="53" t="s">
         <v>87</v>
       </c>
@@ -6487,14 +6487,14 @@
       <c r="A50" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="93"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="96"/>
     </row>
     <row r="51" spans="1:7" s="51" customFormat="1">
       <c r="A51" s="56" t="s">
@@ -6591,23 +6591,23 @@
       <c r="A56" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="94"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="96"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="90"/>
     </row>
     <row r="57" spans="1:7" s="51" customFormat="1">
       <c r="A57" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="90"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="93"/>
       <c r="F57" s="53" t="s">
         <v>87</v>
       </c>
@@ -6620,14 +6620,14 @@
       <c r="A58" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="91" t="s">
+      <c r="B58" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="93"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="96"/>
     </row>
     <row r="59" spans="1:7" s="51" customFormat="1">
       <c r="A59" s="56" t="s">
@@ -6724,23 +6724,23 @@
       <c r="A64" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="94"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="95"/>
-      <c r="G64" s="96"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="90"/>
     </row>
     <row r="65" spans="1:7" s="51" customFormat="1">
       <c r="A65" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="88" t="s">
+      <c r="B65" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="90"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="93"/>
       <c r="F65" s="53" t="s">
         <v>87</v>
       </c>
@@ -6753,14 +6753,14 @@
       <c r="A66" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="93"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="96"/>
     </row>
     <row r="67" spans="1:7" s="51" customFormat="1">
       <c r="A67" s="56" t="s">
@@ -6840,23 +6840,23 @@
       <c r="A71" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="94"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="95"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="95"/>
-      <c r="G71" s="96"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="90"/>
     </row>
     <row r="72" spans="1:7" s="51" customFormat="1">
       <c r="A72" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="88" t="s">
+      <c r="B72" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="89"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="90"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="93"/>
       <c r="F72" s="53" t="s">
         <v>87</v>
       </c>
@@ -6869,14 +6869,14 @@
       <c r="A73" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="91" t="s">
+      <c r="B73" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="93"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="96"/>
     </row>
     <row r="74" spans="1:7" s="51" customFormat="1">
       <c r="A74" s="56" t="s">
@@ -6956,23 +6956,23 @@
       <c r="A78" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="94"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="96"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="90"/>
     </row>
     <row r="79" spans="1:7" s="51" customFormat="1">
       <c r="A79" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B79" s="88" t="s">
+      <c r="B79" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C79" s="89"/>
-      <c r="D79" s="89"/>
-      <c r="E79" s="90"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="93"/>
       <c r="F79" s="53" t="s">
         <v>87</v>
       </c>
@@ -6985,14 +6985,14 @@
       <c r="A80" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="91" t="s">
+      <c r="B80" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="92"/>
-      <c r="F80" s="92"/>
-      <c r="G80" s="93"/>
+      <c r="C80" s="95"/>
+      <c r="D80" s="95"/>
+      <c r="E80" s="95"/>
+      <c r="F80" s="95"/>
+      <c r="G80" s="96"/>
     </row>
     <row r="81" spans="1:7" s="51" customFormat="1">
       <c r="A81" s="56" t="s">
@@ -7072,23 +7072,23 @@
       <c r="A85" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="94"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="95"/>
-      <c r="E85" s="95"/>
-      <c r="F85" s="95"/>
-      <c r="G85" s="96"/>
+      <c r="B85" s="88"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="89"/>
+      <c r="F85" s="89"/>
+      <c r="G85" s="90"/>
     </row>
     <row r="86" spans="1:7" s="51" customFormat="1">
       <c r="A86" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="B86" s="88" t="s">
+      <c r="B86" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="C86" s="89"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="90"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="93"/>
       <c r="F86" s="53" t="s">
         <v>87</v>
       </c>
@@ -7101,14 +7101,14 @@
       <c r="A87" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="91" t="s">
+      <c r="B87" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="92"/>
-      <c r="G87" s="93"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="95"/>
+      <c r="F87" s="95"/>
+      <c r="G87" s="96"/>
     </row>
     <row r="88" spans="1:7" s="51" customFormat="1">
       <c r="A88" s="56" t="s">
@@ -7207,23 +7207,23 @@
       <c r="A93" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="94"/>
-      <c r="C93" s="95"/>
-      <c r="D93" s="95"/>
-      <c r="E93" s="95"/>
-      <c r="F93" s="95"/>
-      <c r="G93" s="96"/>
+      <c r="B93" s="88"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="89"/>
+      <c r="G93" s="90"/>
     </row>
     <row r="94" spans="1:7" s="51" customFormat="1">
       <c r="A94" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="B94" s="88" t="s">
+      <c r="B94" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="C94" s="89"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="90"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="93"/>
       <c r="F94" s="53" t="s">
         <v>87</v>
       </c>
@@ -7236,14 +7236,14 @@
       <c r="A95" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="91" t="s">
+      <c r="B95" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="92"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="93"/>
+      <c r="C95" s="95"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="95"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="96"/>
     </row>
     <row r="96" spans="1:7" s="51" customFormat="1">
       <c r="A96" s="56" t="s">
@@ -7340,23 +7340,23 @@
       <c r="A101" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="94"/>
-      <c r="C101" s="95"/>
-      <c r="D101" s="95"/>
-      <c r="E101" s="95"/>
-      <c r="F101" s="95"/>
-      <c r="G101" s="96"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="90"/>
     </row>
     <row r="102" spans="1:7" s="51" customFormat="1">
       <c r="A102" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B102" s="88" t="s">
+      <c r="B102" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="C102" s="89"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="90"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="93"/>
       <c r="F102" s="53" t="s">
         <v>87</v>
       </c>
@@ -7369,14 +7369,14 @@
       <c r="A103" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B103" s="91" t="s">
+      <c r="B103" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="93"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="95"/>
+      <c r="G103" s="96"/>
     </row>
     <row r="104" spans="1:7" s="51" customFormat="1">
       <c r="A104" s="56" t="s">
@@ -7490,23 +7490,23 @@
       <c r="A110" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="94"/>
-      <c r="C110" s="95"/>
-      <c r="D110" s="95"/>
-      <c r="E110" s="95"/>
-      <c r="F110" s="95"/>
-      <c r="G110" s="96"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="90"/>
     </row>
     <row r="111" spans="1:7" s="51" customFormat="1">
       <c r="A111" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="B111" s="88" t="s">
+      <c r="B111" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="C111" s="89"/>
-      <c r="D111" s="89"/>
-      <c r="E111" s="90"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="92"/>
+      <c r="E111" s="93"/>
       <c r="F111" s="53" t="s">
         <v>87</v>
       </c>
@@ -7519,14 +7519,14 @@
       <c r="A112" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="91" t="s">
+      <c r="B112" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C112" s="92"/>
-      <c r="D112" s="92"/>
-      <c r="E112" s="92"/>
-      <c r="F112" s="92"/>
-      <c r="G112" s="93"/>
+      <c r="C112" s="95"/>
+      <c r="D112" s="95"/>
+      <c r="E112" s="95"/>
+      <c r="F112" s="95"/>
+      <c r="G112" s="96"/>
     </row>
     <row r="113" spans="1:7" s="51" customFormat="1">
       <c r="A113" s="56" t="s">
@@ -7608,23 +7608,23 @@
       <c r="A117" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B117" s="94"/>
-      <c r="C117" s="95"/>
-      <c r="D117" s="95"/>
-      <c r="E117" s="95"/>
-      <c r="F117" s="95"/>
-      <c r="G117" s="96"/>
+      <c r="B117" s="88"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="89"/>
+      <c r="E117" s="89"/>
+      <c r="F117" s="89"/>
+      <c r="G117" s="90"/>
     </row>
     <row r="118" spans="1:7" s="51" customFormat="1">
       <c r="A118" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="B118" s="88" t="s">
+      <c r="B118" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="C118" s="89"/>
-      <c r="D118" s="89"/>
-      <c r="E118" s="90"/>
+      <c r="C118" s="92"/>
+      <c r="D118" s="92"/>
+      <c r="E118" s="93"/>
       <c r="F118" s="53" t="s">
         <v>87</v>
       </c>
@@ -7637,14 +7637,14 @@
       <c r="A119" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B119" s="91" t="s">
+      <c r="B119" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C119" s="92"/>
-      <c r="D119" s="92"/>
-      <c r="E119" s="92"/>
-      <c r="F119" s="92"/>
-      <c r="G119" s="93"/>
+      <c r="C119" s="95"/>
+      <c r="D119" s="95"/>
+      <c r="E119" s="95"/>
+      <c r="F119" s="95"/>
+      <c r="G119" s="96"/>
     </row>
     <row r="120" spans="1:7" s="51" customFormat="1">
       <c r="A120" s="56" t="s">
@@ -7724,23 +7724,23 @@
       <c r="A124" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B124" s="94"/>
-      <c r="C124" s="95"/>
-      <c r="D124" s="95"/>
-      <c r="E124" s="95"/>
-      <c r="F124" s="95"/>
-      <c r="G124" s="96"/>
+      <c r="B124" s="88"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="89"/>
+      <c r="E124" s="89"/>
+      <c r="F124" s="89"/>
+      <c r="G124" s="90"/>
     </row>
     <row r="125" spans="1:7" s="51" customFormat="1">
       <c r="A125" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="B125" s="88" t="s">
+      <c r="B125" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="89"/>
-      <c r="D125" s="89"/>
-      <c r="E125" s="90"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="93"/>
       <c r="F125" s="53" t="s">
         <v>87</v>
       </c>
@@ -7753,14 +7753,14 @@
       <c r="A126" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="91" t="s">
+      <c r="B126" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C126" s="92"/>
-      <c r="D126" s="92"/>
-      <c r="E126" s="92"/>
-      <c r="F126" s="92"/>
-      <c r="G126" s="93"/>
+      <c r="C126" s="95"/>
+      <c r="D126" s="95"/>
+      <c r="E126" s="95"/>
+      <c r="F126" s="95"/>
+      <c r="G126" s="96"/>
     </row>
     <row r="127" spans="1:7" s="51" customFormat="1">
       <c r="A127" s="56" t="s">
@@ -7857,23 +7857,23 @@
       <c r="A132" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B132" s="94"/>
-      <c r="C132" s="95"/>
-      <c r="D132" s="95"/>
-      <c r="E132" s="95"/>
-      <c r="F132" s="95"/>
-      <c r="G132" s="96"/>
+      <c r="B132" s="88"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="89"/>
+      <c r="E132" s="89"/>
+      <c r="F132" s="89"/>
+      <c r="G132" s="90"/>
     </row>
     <row r="133" spans="1:7" s="51" customFormat="1">
       <c r="A133" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="B133" s="88" t="s">
+      <c r="B133" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="C133" s="89"/>
-      <c r="D133" s="89"/>
-      <c r="E133" s="90"/>
+      <c r="C133" s="92"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="93"/>
       <c r="F133" s="53" t="s">
         <v>87</v>
       </c>
@@ -7886,14 +7886,14 @@
       <c r="A134" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B134" s="91" t="s">
+      <c r="B134" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C134" s="92"/>
-      <c r="D134" s="92"/>
-      <c r="E134" s="92"/>
-      <c r="F134" s="92"/>
-      <c r="G134" s="93"/>
+      <c r="C134" s="95"/>
+      <c r="D134" s="95"/>
+      <c r="E134" s="95"/>
+      <c r="F134" s="95"/>
+      <c r="G134" s="96"/>
     </row>
     <row r="135" spans="1:7" s="51" customFormat="1">
       <c r="A135" s="56" t="s">
@@ -7973,23 +7973,23 @@
       <c r="A139" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B139" s="94"/>
-      <c r="C139" s="95"/>
-      <c r="D139" s="95"/>
-      <c r="E139" s="95"/>
-      <c r="F139" s="95"/>
-      <c r="G139" s="96"/>
+      <c r="B139" s="88"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="89"/>
+      <c r="E139" s="89"/>
+      <c r="F139" s="89"/>
+      <c r="G139" s="90"/>
     </row>
     <row r="140" spans="1:7" s="51" customFormat="1">
       <c r="A140" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="B140" s="88" t="s">
+      <c r="B140" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="C140" s="89"/>
-      <c r="D140" s="89"/>
-      <c r="E140" s="90"/>
+      <c r="C140" s="92"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="93"/>
       <c r="F140" s="53" t="s">
         <v>87</v>
       </c>
@@ -8002,14 +8002,14 @@
       <c r="A141" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B141" s="91" t="s">
+      <c r="B141" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C141" s="92"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="92"/>
-      <c r="F141" s="92"/>
-      <c r="G141" s="93"/>
+      <c r="C141" s="95"/>
+      <c r="D141" s="95"/>
+      <c r="E141" s="95"/>
+      <c r="F141" s="95"/>
+      <c r="G141" s="96"/>
     </row>
     <row r="142" spans="1:7" s="51" customFormat="1">
       <c r="A142" s="56" t="s">
@@ -8089,23 +8089,23 @@
       <c r="A146" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B146" s="94"/>
-      <c r="C146" s="95"/>
-      <c r="D146" s="95"/>
-      <c r="E146" s="95"/>
-      <c r="F146" s="95"/>
-      <c r="G146" s="96"/>
+      <c r="B146" s="88"/>
+      <c r="C146" s="89"/>
+      <c r="D146" s="89"/>
+      <c r="E146" s="89"/>
+      <c r="F146" s="89"/>
+      <c r="G146" s="90"/>
     </row>
     <row r="147" spans="1:7" s="51" customFormat="1">
       <c r="A147" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="B147" s="88" t="s">
+      <c r="B147" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C147" s="89"/>
-      <c r="D147" s="89"/>
-      <c r="E147" s="90"/>
+      <c r="C147" s="92"/>
+      <c r="D147" s="92"/>
+      <c r="E147" s="93"/>
       <c r="F147" s="53" t="s">
         <v>87</v>
       </c>
@@ -8118,14 +8118,14 @@
       <c r="A148" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B148" s="91" t="s">
+      <c r="B148" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C148" s="92"/>
-      <c r="D148" s="92"/>
-      <c r="E148" s="92"/>
-      <c r="F148" s="92"/>
-      <c r="G148" s="93"/>
+      <c r="C148" s="95"/>
+      <c r="D148" s="95"/>
+      <c r="E148" s="95"/>
+      <c r="F148" s="95"/>
+      <c r="G148" s="96"/>
     </row>
     <row r="149" spans="1:7" s="51" customFormat="1">
       <c r="A149" s="56" t="s">
@@ -8205,23 +8205,23 @@
       <c r="A153" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B153" s="94"/>
-      <c r="C153" s="95"/>
-      <c r="D153" s="95"/>
-      <c r="E153" s="95"/>
-      <c r="F153" s="95"/>
-      <c r="G153" s="96"/>
+      <c r="B153" s="88"/>
+      <c r="C153" s="89"/>
+      <c r="D153" s="89"/>
+      <c r="E153" s="89"/>
+      <c r="F153" s="89"/>
+      <c r="G153" s="90"/>
     </row>
     <row r="154" spans="1:7" s="51" customFormat="1">
       <c r="A154" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="B154" s="88" t="s">
+      <c r="B154" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="C154" s="89"/>
-      <c r="D154" s="89"/>
-      <c r="E154" s="90"/>
+      <c r="C154" s="92"/>
+      <c r="D154" s="92"/>
+      <c r="E154" s="93"/>
       <c r="F154" s="53" t="s">
         <v>87</v>
       </c>
@@ -8234,14 +8234,14 @@
       <c r="A155" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B155" s="91" t="s">
+      <c r="B155" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C155" s="92"/>
-      <c r="D155" s="92"/>
-      <c r="E155" s="92"/>
-      <c r="F155" s="92"/>
-      <c r="G155" s="93"/>
+      <c r="C155" s="95"/>
+      <c r="D155" s="95"/>
+      <c r="E155" s="95"/>
+      <c r="F155" s="95"/>
+      <c r="G155" s="96"/>
     </row>
     <row r="156" spans="1:7" s="51" customFormat="1">
       <c r="A156" s="56" t="s">
@@ -8304,23 +8304,23 @@
       <c r="A159" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B159" s="94"/>
-      <c r="C159" s="95"/>
-      <c r="D159" s="95"/>
-      <c r="E159" s="95"/>
-      <c r="F159" s="95"/>
-      <c r="G159" s="96"/>
+      <c r="B159" s="88"/>
+      <c r="C159" s="89"/>
+      <c r="D159" s="89"/>
+      <c r="E159" s="89"/>
+      <c r="F159" s="89"/>
+      <c r="G159" s="90"/>
     </row>
     <row r="160" spans="1:7" s="51" customFormat="1">
       <c r="A160" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B160" s="88" t="s">
+      <c r="B160" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="C160" s="89"/>
-      <c r="D160" s="89"/>
-      <c r="E160" s="90"/>
+      <c r="C160" s="92"/>
+      <c r="D160" s="92"/>
+      <c r="E160" s="93"/>
       <c r="F160" s="53" t="s">
         <v>87</v>
       </c>
@@ -8333,14 +8333,14 @@
       <c r="A161" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B161" s="91" t="s">
+      <c r="B161" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C161" s="92"/>
-      <c r="D161" s="92"/>
-      <c r="E161" s="92"/>
-      <c r="F161" s="92"/>
-      <c r="G161" s="93"/>
+      <c r="C161" s="95"/>
+      <c r="D161" s="95"/>
+      <c r="E161" s="95"/>
+      <c r="F161" s="95"/>
+      <c r="G161" s="96"/>
     </row>
     <row r="162" spans="1:7" s="51" customFormat="1">
       <c r="A162" s="56" t="s">
@@ -8420,23 +8420,23 @@
       <c r="A166" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B166" s="94"/>
-      <c r="C166" s="95"/>
-      <c r="D166" s="95"/>
-      <c r="E166" s="95"/>
-      <c r="F166" s="95"/>
-      <c r="G166" s="96"/>
+      <c r="B166" s="88"/>
+      <c r="C166" s="89"/>
+      <c r="D166" s="89"/>
+      <c r="E166" s="89"/>
+      <c r="F166" s="89"/>
+      <c r="G166" s="90"/>
     </row>
     <row r="167" spans="1:7" s="51" customFormat="1">
       <c r="A167" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="B167" s="88" t="s">
+      <c r="B167" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="C167" s="89"/>
-      <c r="D167" s="89"/>
-      <c r="E167" s="90"/>
+      <c r="C167" s="92"/>
+      <c r="D167" s="92"/>
+      <c r="E167" s="93"/>
       <c r="F167" s="53" t="s">
         <v>87</v>
       </c>
@@ -8449,14 +8449,14 @@
       <c r="A168" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B168" s="91" t="s">
+      <c r="B168" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C168" s="92"/>
-      <c r="D168" s="92"/>
-      <c r="E168" s="92"/>
-      <c r="F168" s="92"/>
-      <c r="G168" s="93"/>
+      <c r="C168" s="95"/>
+      <c r="D168" s="95"/>
+      <c r="E168" s="95"/>
+      <c r="F168" s="95"/>
+      <c r="G168" s="96"/>
     </row>
     <row r="169" spans="1:7" s="51" customFormat="1">
       <c r="A169" s="56" t="s">
@@ -8536,23 +8536,23 @@
       <c r="A173" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B173" s="94"/>
-      <c r="C173" s="95"/>
-      <c r="D173" s="95"/>
-      <c r="E173" s="95"/>
-      <c r="F173" s="95"/>
-      <c r="G173" s="96"/>
+      <c r="B173" s="88"/>
+      <c r="C173" s="89"/>
+      <c r="D173" s="89"/>
+      <c r="E173" s="89"/>
+      <c r="F173" s="89"/>
+      <c r="G173" s="90"/>
     </row>
     <row r="174" spans="1:7" s="51" customFormat="1">
       <c r="A174" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="B174" s="88" t="s">
+      <c r="B174" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C174" s="89"/>
-      <c r="D174" s="89"/>
-      <c r="E174" s="90"/>
+      <c r="C174" s="92"/>
+      <c r="D174" s="92"/>
+      <c r="E174" s="93"/>
       <c r="F174" s="53" t="s">
         <v>87</v>
       </c>
@@ -8565,14 +8565,14 @@
       <c r="A175" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B175" s="91" t="s">
+      <c r="B175" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C175" s="92"/>
-      <c r="D175" s="92"/>
-      <c r="E175" s="92"/>
-      <c r="F175" s="92"/>
-      <c r="G175" s="93"/>
+      <c r="C175" s="95"/>
+      <c r="D175" s="95"/>
+      <c r="E175" s="95"/>
+      <c r="F175" s="95"/>
+      <c r="G175" s="96"/>
     </row>
     <row r="176" spans="1:7" s="51" customFormat="1">
       <c r="A176" s="56" t="s">
@@ -8675,23 +8675,23 @@
       <c r="A181" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B181" s="94"/>
-      <c r="C181" s="95"/>
-      <c r="D181" s="95"/>
-      <c r="E181" s="95"/>
-      <c r="F181" s="95"/>
-      <c r="G181" s="96"/>
+      <c r="B181" s="88"/>
+      <c r="C181" s="89"/>
+      <c r="D181" s="89"/>
+      <c r="E181" s="89"/>
+      <c r="F181" s="89"/>
+      <c r="G181" s="90"/>
     </row>
     <row r="182" spans="1:7" s="51" customFormat="1">
       <c r="A182" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="B182" s="88" t="s">
+      <c r="B182" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="C182" s="89"/>
-      <c r="D182" s="89"/>
-      <c r="E182" s="90"/>
+      <c r="C182" s="92"/>
+      <c r="D182" s="92"/>
+      <c r="E182" s="93"/>
       <c r="F182" s="53" t="s">
         <v>87</v>
       </c>
@@ -8704,14 +8704,14 @@
       <c r="A183" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B183" s="91" t="s">
+      <c r="B183" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C183" s="92"/>
-      <c r="D183" s="92"/>
-      <c r="E183" s="92"/>
-      <c r="F183" s="92"/>
-      <c r="G183" s="93"/>
+      <c r="C183" s="95"/>
+      <c r="D183" s="95"/>
+      <c r="E183" s="95"/>
+      <c r="F183" s="95"/>
+      <c r="G183" s="96"/>
     </row>
     <row r="184" spans="1:7" s="51" customFormat="1">
       <c r="A184" s="56" t="s">
@@ -8791,23 +8791,23 @@
       <c r="A188" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B188" s="94"/>
-      <c r="C188" s="95"/>
-      <c r="D188" s="95"/>
-      <c r="E188" s="95"/>
-      <c r="F188" s="95"/>
-      <c r="G188" s="96"/>
+      <c r="B188" s="88"/>
+      <c r="C188" s="89"/>
+      <c r="D188" s="89"/>
+      <c r="E188" s="89"/>
+      <c r="F188" s="89"/>
+      <c r="G188" s="90"/>
     </row>
     <row r="189" spans="1:7" s="51" customFormat="1">
       <c r="A189" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="B189" s="88" t="s">
+      <c r="B189" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="C189" s="89"/>
-      <c r="D189" s="89"/>
-      <c r="E189" s="90"/>
+      <c r="C189" s="92"/>
+      <c r="D189" s="92"/>
+      <c r="E189" s="93"/>
       <c r="F189" s="53" t="s">
         <v>87</v>
       </c>
@@ -8820,14 +8820,14 @@
       <c r="A190" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B190" s="91" t="s">
+      <c r="B190" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C190" s="92"/>
-      <c r="D190" s="92"/>
-      <c r="E190" s="92"/>
-      <c r="F190" s="92"/>
-      <c r="G190" s="93"/>
+      <c r="C190" s="95"/>
+      <c r="D190" s="95"/>
+      <c r="E190" s="95"/>
+      <c r="F190" s="95"/>
+      <c r="G190" s="96"/>
     </row>
     <row r="191" spans="1:7" s="51" customFormat="1">
       <c r="A191" s="56" t="s">
@@ -8909,23 +8909,23 @@
       <c r="A195" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B195" s="94"/>
-      <c r="C195" s="95"/>
-      <c r="D195" s="95"/>
-      <c r="E195" s="95"/>
-      <c r="F195" s="95"/>
-      <c r="G195" s="96"/>
+      <c r="B195" s="88"/>
+      <c r="C195" s="89"/>
+      <c r="D195" s="89"/>
+      <c r="E195" s="89"/>
+      <c r="F195" s="89"/>
+      <c r="G195" s="90"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="B196" s="88" t="s">
+      <c r="B196" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="C196" s="89"/>
-      <c r="D196" s="89"/>
-      <c r="E196" s="90"/>
+      <c r="C196" s="92"/>
+      <c r="D196" s="92"/>
+      <c r="E196" s="93"/>
       <c r="F196" s="53" t="s">
         <v>87</v>
       </c>
@@ -8938,14 +8938,14 @@
       <c r="A197" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B197" s="91" t="s">
+      <c r="B197" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C197" s="92"/>
-      <c r="D197" s="92"/>
-      <c r="E197" s="92"/>
-      <c r="F197" s="92"/>
-      <c r="G197" s="93"/>
+      <c r="C197" s="95"/>
+      <c r="D197" s="95"/>
+      <c r="E197" s="95"/>
+      <c r="F197" s="95"/>
+      <c r="G197" s="96"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="56" t="s">
@@ -9078,12 +9078,12 @@
       <c r="A205" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B205" s="94"/>
-      <c r="C205" s="95"/>
-      <c r="D205" s="95"/>
-      <c r="E205" s="95"/>
-      <c r="F205" s="95"/>
-      <c r="G205" s="96"/>
+      <c r="B205" s="88"/>
+      <c r="C205" s="89"/>
+      <c r="D205" s="89"/>
+      <c r="E205" s="89"/>
+      <c r="F205" s="89"/>
+      <c r="G205" s="90"/>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="32"/>
@@ -15771,69 +15771,6 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B189:E189"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="B155:G155"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B132:G132"/>
     <mergeCell ref="B196:E196"/>
     <mergeCell ref="B197:G197"/>
     <mergeCell ref="B205:G205"/>
@@ -15850,6 +15787,69 @@
     <mergeCell ref="B167:E167"/>
     <mergeCell ref="B168:G168"/>
     <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="B183:G183"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F431:F433 F438:F444 F657:F659 F647:F652 F449:F458 F463:F466 F471:F476 F481:F489 F494:F503 F508:F518 F523:F533 F549:F555 F577:F579 F538:F544 F560:F566 F571:F572 F584:F590 F595:F601 F617:F619 F606:F612 F624:F627 F632:F634 F639:F642 F21 F192:F194 F26:F29 F45:F47 F52:F55 F68:F70 F75:F77 F82:F84 F89:F92 F97:F100 F105:F109 F114:F116 F121:F123 F128:F131 F60:F63 F136:F138 F143:F145 F150:F152 F157:F158 F163:F165 F170:F172 F177:F180 F185:F187 F34:F40 F199:F204" xr:uid="{00000000-0002-0000-0200-000000000000}">
